--- a/src/Phoenix.Services/Reports/Templates/PlcReport_pl.xlsx
+++ b/src/Phoenix.Services/Reports/Templates/PlcReport_pl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maciej\Projekty\Phoenix\src\Phoenix.Services\Reports\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maciej\Desktop\Phoenix\src\Phoenix.Services\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295908D-B5B4-436F-9548-06ECB52BEA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E9BA0E-9BD6-437F-A917-CE52C347C1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="10" r:id="rId1"/>
@@ -787,6 +787,9 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -814,35 +817,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,14 +838,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1190,1868 +1190,1868 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="961" width="9.6640625" style="1" customWidth="1"/>
-    <col min="962" max="962" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="961" width="9.7109375" style="1" customWidth="1"/>
+    <col min="962" max="962" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-    </row>
-    <row r="2" spans="1:1" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-    </row>
-    <row r="4" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-    </row>
-    <row r="5" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-    </row>
-    <row r="6" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-    </row>
-    <row r="7" spans="1:1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
-    </row>
-    <row r="8" spans="1:1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+    </row>
+    <row r="2" spans="1:1" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+    </row>
+    <row r="4" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+    </row>
+    <row r="5" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+    </row>
+    <row r="6" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+    </row>
+    <row r="7" spans="1:1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+    </row>
+    <row r="8" spans="1:1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32">
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="32">
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43">
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43">
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32">
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="43">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="43">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32">
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="43">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="43">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="43">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32">
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="32">
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="43">
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32">
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="43">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32">
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32">
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="43">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="32">
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="43">
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="32">
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="43">
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32">
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="32">
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="32">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="43">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="32">
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="32">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="32">
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43">
         <v>130</v>
       </c>
     </row>
-    <row r="138" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="32">
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="43">
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="32">
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="32">
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="32">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="43">
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="32">
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="32">
         <v>141</v>
       </c>
     </row>
-    <row r="149" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="43">
         <v>142</v>
       </c>
     </row>
-    <row r="150" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="32">
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="43">
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="32">
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="32">
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43">
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="32">
         <v>149</v>
       </c>
     </row>
-    <row r="157" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="43">
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="32">
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="32">
         <v>153</v>
       </c>
     </row>
-    <row r="161" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="43">
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="32">
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="43">
         <v>156</v>
       </c>
     </row>
-    <row r="164" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="32">
         <v>157</v>
       </c>
     </row>
-    <row r="165" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="32">
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="43">
         <v>160</v>
       </c>
     </row>
-    <row r="168" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="32">
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="43">
         <v>162</v>
       </c>
     </row>
-    <row r="170" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="32">
         <v>163</v>
       </c>
     </row>
-    <row r="171" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>164</v>
       </c>
     </row>
-    <row r="172" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="32">
         <v>165</v>
       </c>
     </row>
-    <row r="173" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="43">
         <v>166</v>
       </c>
     </row>
-    <row r="174" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="32">
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="43">
         <v>168</v>
       </c>
     </row>
-    <row r="176" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="32">
         <v>169</v>
       </c>
     </row>
-    <row r="177" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="32">
         <v>171</v>
       </c>
     </row>
-    <row r="179" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="43">
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="32">
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="43">
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="32">
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>176</v>
       </c>
     </row>
-    <row r="184" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="32">
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="43">
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="32">
         <v>179</v>
       </c>
     </row>
-    <row r="187" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="43">
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="32">
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>182</v>
       </c>
     </row>
-    <row r="190" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="32">
         <v>183</v>
       </c>
     </row>
-    <row r="191" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="43">
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="32">
         <v>185</v>
       </c>
     </row>
-    <row r="193" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="43">
         <v>186</v>
       </c>
     </row>
-    <row r="194" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="32">
         <v>187</v>
       </c>
     </row>
-    <row r="195" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>188</v>
       </c>
     </row>
-    <row r="196" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="32">
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="43">
         <v>190</v>
       </c>
     </row>
-    <row r="198" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="32">
         <v>191</v>
       </c>
     </row>
-    <row r="199" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="43">
         <v>192</v>
       </c>
     </row>
-    <row r="200" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="32">
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="32">
         <v>195</v>
       </c>
     </row>
-    <row r="203" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="43">
         <v>196</v>
       </c>
     </row>
-    <row r="204" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="32">
         <v>197</v>
       </c>
     </row>
-    <row r="205" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="43">
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="32">
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="32">
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="43">
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="32">
         <v>203</v>
       </c>
     </row>
-    <row r="211" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="43">
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="32">
         <v>205</v>
       </c>
     </row>
-    <row r="213" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="32">
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="43">
         <v>208</v>
       </c>
     </row>
-    <row r="216" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="32">
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="43">
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="32">
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="32">
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="43">
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="32">
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="43">
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="32">
         <v>217</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>218</v>
       </c>
     </row>
-    <row r="226" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="32">
         <v>219</v>
       </c>
     </row>
-    <row r="227" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="43">
         <v>220</v>
       </c>
     </row>
-    <row r="228" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="32">
         <v>221</v>
       </c>
     </row>
-    <row r="229" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="43">
         <v>222</v>
       </c>
     </row>
-    <row r="230" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="32">
         <v>223</v>
       </c>
     </row>
-    <row r="231" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>224</v>
       </c>
     </row>
-    <row r="232" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="32">
         <v>225</v>
       </c>
     </row>
-    <row r="233" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="43">
         <v>226</v>
       </c>
     </row>
-    <row r="234" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="32">
         <v>227</v>
       </c>
     </row>
-    <row r="235" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="43">
         <v>228</v>
       </c>
     </row>
-    <row r="236" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="32">
         <v>229</v>
       </c>
     </row>
-    <row r="237" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>230</v>
       </c>
     </row>
-    <row r="238" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="32">
         <v>231</v>
       </c>
     </row>
-    <row r="239" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="43">
         <v>232</v>
       </c>
     </row>
-    <row r="240" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="32">
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="43">
         <v>234</v>
       </c>
     </row>
-    <row r="242" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="32">
         <v>235</v>
       </c>
     </row>
-    <row r="243" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>236</v>
       </c>
     </row>
-    <row r="244" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="32">
         <v>237</v>
       </c>
     </row>
-    <row r="245" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="43">
         <v>238</v>
       </c>
     </row>
-    <row r="246" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="32">
         <v>239</v>
       </c>
     </row>
-    <row r="247" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="43">
         <v>240</v>
       </c>
     </row>
-    <row r="248" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="32">
         <v>241</v>
       </c>
     </row>
-    <row r="249" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>242</v>
       </c>
     </row>
-    <row r="250" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="32">
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="43">
         <v>244</v>
       </c>
     </row>
-    <row r="252" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="32">
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="43">
         <v>246</v>
       </c>
     </row>
-    <row r="254" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="32">
         <v>247</v>
       </c>
     </row>
-    <row r="255" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>248</v>
       </c>
     </row>
-    <row r="256" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="32">
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="43">
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="32">
         <v>251</v>
       </c>
     </row>
-    <row r="259" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="43">
         <v>252</v>
       </c>
     </row>
-    <row r="260" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="32">
         <v>253</v>
       </c>
     </row>
-    <row r="261" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>254</v>
       </c>
     </row>
-    <row r="262" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="32">
         <v>255</v>
       </c>
     </row>
-    <row r="263" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="43">
         <v>256</v>
       </c>
     </row>
-    <row r="264" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="32">
         <v>257</v>
       </c>
     </row>
-    <row r="265" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="43">
         <v>258</v>
       </c>
     </row>
-    <row r="266" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="32">
         <v>259</v>
       </c>
     </row>
-    <row r="267" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>260</v>
       </c>
     </row>
-    <row r="268" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="32">
         <v>261</v>
       </c>
     </row>
-    <row r="269" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="43">
         <v>262</v>
       </c>
     </row>
-    <row r="270" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="32">
         <v>263</v>
       </c>
     </row>
-    <row r="271" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="43">
         <v>264</v>
       </c>
     </row>
-    <row r="272" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="32">
         <v>265</v>
       </c>
     </row>
-    <row r="273" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>266</v>
       </c>
     </row>
-    <row r="274" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="32">
         <v>267</v>
       </c>
     </row>
-    <row r="275" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="43">
         <v>268</v>
       </c>
     </row>
-    <row r="276" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="32">
         <v>269</v>
       </c>
     </row>
-    <row r="277" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="43">
         <v>270</v>
       </c>
     </row>
-    <row r="278" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="32">
         <v>271</v>
       </c>
     </row>
-    <row r="279" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>272</v>
       </c>
     </row>
-    <row r="280" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="32">
         <v>273</v>
       </c>
     </row>
-    <row r="281" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="43">
         <v>274</v>
       </c>
     </row>
-    <row r="282" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="32">
         <v>275</v>
       </c>
     </row>
-    <row r="283" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="43">
         <v>276</v>
       </c>
     </row>
-    <row r="284" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="32">
         <v>277</v>
       </c>
     </row>
-    <row r="285" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>278</v>
       </c>
     </row>
-    <row r="286" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="32">
         <v>279</v>
       </c>
     </row>
-    <row r="287" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="43">
         <v>280</v>
       </c>
     </row>
-    <row r="288" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="32">
         <v>281</v>
       </c>
     </row>
-    <row r="289" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="43">
         <v>282</v>
       </c>
     </row>
-    <row r="290" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="32">
         <v>283</v>
       </c>
     </row>
-    <row r="291" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>284</v>
       </c>
     </row>
-    <row r="292" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="32">
         <v>285</v>
       </c>
     </row>
-    <row r="293" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="43">
         <v>286</v>
       </c>
     </row>
-    <row r="294" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="32">
         <v>287</v>
       </c>
     </row>
-    <row r="295" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="43">
         <v>288</v>
       </c>
     </row>
-    <row r="296" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="32">
         <v>289</v>
       </c>
     </row>
-    <row r="297" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>290</v>
       </c>
     </row>
-    <row r="298" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="32">
         <v>291</v>
       </c>
     </row>
-    <row r="299" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="43">
         <v>292</v>
       </c>
     </row>
-    <row r="300" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="32">
         <v>293</v>
       </c>
     </row>
-    <row r="301" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="43">
         <v>294</v>
       </c>
     </row>
-    <row r="302" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="32">
         <v>295</v>
       </c>
     </row>
-    <row r="303" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>296</v>
       </c>
     </row>
-    <row r="304" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="32">
         <v>297</v>
       </c>
     </row>
-    <row r="305" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="43">
         <v>298</v>
       </c>
     </row>
-    <row r="306" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="32">
         <v>299</v>
       </c>
     </row>
-    <row r="307" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="43">
         <v>300</v>
       </c>
     </row>
-    <row r="308" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="32">
         <v>301</v>
       </c>
     </row>
-    <row r="309" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>302</v>
       </c>
     </row>
-    <row r="310" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="32">
         <v>303</v>
       </c>
     </row>
-    <row r="311" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="43">
         <v>304</v>
       </c>
     </row>
-    <row r="312" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="32">
         <v>305</v>
       </c>
     </row>
-    <row r="313" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="43">
         <v>306</v>
       </c>
     </row>
-    <row r="314" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="32">
         <v>307</v>
       </c>
     </row>
-    <row r="315" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>308</v>
       </c>
     </row>
-    <row r="316" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="32">
         <v>309</v>
       </c>
     </row>
-    <row r="317" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="43">
         <v>310</v>
       </c>
     </row>
-    <row r="318" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="32">
         <v>311</v>
       </c>
     </row>
-    <row r="319" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="43">
         <v>312</v>
       </c>
     </row>
-    <row r="320" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="32">
         <v>313</v>
       </c>
     </row>
-    <row r="321" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>314</v>
       </c>
     </row>
-    <row r="322" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="32">
         <v>315</v>
       </c>
     </row>
-    <row r="323" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="43">
         <v>316</v>
       </c>
     </row>
-    <row r="324" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="32">
         <v>317</v>
       </c>
     </row>
-    <row r="325" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="43">
         <v>318</v>
       </c>
     </row>
-    <row r="326" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="32">
         <v>319</v>
       </c>
     </row>
-    <row r="327" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>320</v>
       </c>
     </row>
-    <row r="328" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="32">
         <v>321</v>
       </c>
     </row>
-    <row r="329" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="43">
         <v>322</v>
       </c>
     </row>
-    <row r="330" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="32">
         <v>323</v>
       </c>
     </row>
-    <row r="331" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="43">
         <v>324</v>
       </c>
     </row>
-    <row r="332" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="32">
         <v>325</v>
       </c>
     </row>
-    <row r="333" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>326</v>
       </c>
     </row>
-    <row r="334" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="32">
         <v>327</v>
       </c>
     </row>
-    <row r="335" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="43">
         <v>328</v>
       </c>
     </row>
-    <row r="336" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="32">
         <v>329</v>
       </c>
     </row>
-    <row r="337" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="43">
         <v>330</v>
       </c>
     </row>
-    <row r="338" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="32">
         <v>331</v>
       </c>
     </row>
-    <row r="339" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>332</v>
       </c>
     </row>
-    <row r="340" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="32">
         <v>333</v>
       </c>
     </row>
-    <row r="341" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="43">
         <v>334</v>
       </c>
     </row>
-    <row r="342" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="32">
         <v>335</v>
       </c>
     </row>
-    <row r="343" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="43">
         <v>336</v>
       </c>
     </row>
-    <row r="344" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="32">
         <v>337</v>
       </c>
     </row>
-    <row r="345" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>338</v>
       </c>
     </row>
-    <row r="346" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="32">
         <v>339</v>
       </c>
     </row>
-    <row r="347" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="43">
         <v>340</v>
       </c>
     </row>
-    <row r="348" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="32">
         <v>341</v>
       </c>
     </row>
-    <row r="349" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="43">
         <v>342</v>
       </c>
     </row>
-    <row r="350" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="32">
         <v>343</v>
       </c>
     </row>
-    <row r="351" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>344</v>
       </c>
     </row>
-    <row r="352" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="32">
         <v>345</v>
       </c>
     </row>
-    <row r="353" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="43">
         <v>346</v>
       </c>
     </row>
-    <row r="354" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="32">
         <v>347</v>
       </c>
     </row>
-    <row r="355" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="43">
         <v>348</v>
       </c>
     </row>
-    <row r="356" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="32">
         <v>349</v>
       </c>
     </row>
-    <row r="357" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>350</v>
       </c>
     </row>
-    <row r="358" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="32">
         <v>351</v>
       </c>
     </row>
-    <row r="359" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="43">
         <v>352</v>
       </c>
     </row>
-    <row r="360" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="32">
         <v>353</v>
       </c>
     </row>
-    <row r="361" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="43">
         <v>354</v>
       </c>
     </row>
-    <row r="362" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="32">
         <v>355</v>
       </c>
     </row>
-    <row r="363" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>356</v>
       </c>
     </row>
-    <row r="364" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="32">
         <v>357</v>
       </c>
     </row>
-    <row r="365" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="43">
         <v>358</v>
       </c>
     </row>
-    <row r="366" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="32">
         <v>359</v>
       </c>
     </row>
-    <row r="367" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="43">
         <v>360</v>
       </c>
     </row>
-    <row r="368" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="32">
         <v>361</v>
       </c>
     </row>
-    <row r="369" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>362</v>
       </c>
     </row>
-    <row r="370" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="32">
         <v>363</v>
       </c>
     </row>
-    <row r="371" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="43">
         <v>364</v>
       </c>
     </row>
-    <row r="372" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="32">
         <v>365</v>
       </c>
     </row>
-    <row r="373" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="43">
         <v>366</v>
       </c>
     </row>
-    <row r="374" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="45"/>
     </row>
-    <row r="376" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="1:1" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:1" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A7"/>
@@ -3071,17 +3071,17 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="8.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="974" width="9.6640625" style="1" customWidth="1"/>
-    <col min="975" max="975" width="9.6640625" customWidth="1"/>
+    <col min="1" max="12" width="6.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="974" width="9.7109375" style="1" customWidth="1"/>
+    <col min="975" max="975" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:974" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
+    <row r="1" spans="1:974" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
       <c r="AJZ1"/>
       <c r="AKA1"/>
       <c r="AKB1"/>
@@ -3096,7 +3096,7 @@
       <c r="AKK1"/>
       <c r="AKL1"/>
     </row>
-    <row r="2" spans="1:974" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:974" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJZ2"/>
       <c r="AKA2"/>
       <c r="AKB2"/>
@@ -3111,59 +3111,59 @@
       <c r="AKK2"/>
       <c r="AKL2"/>
     </row>
-    <row r="3" spans="1:974" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-    </row>
-    <row r="4" spans="1:974" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-    </row>
-    <row r="5" spans="1:974" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+    <row r="3" spans="1:974" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+    </row>
+    <row r="4" spans="1:974" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+    </row>
+    <row r="5" spans="1:974" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
       <c r="M5" s="3" t="s">
         <v>16</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:974" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:974" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -3215,25 +3215,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:974" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:974" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54" t="s">
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="12" t="s">
         <v>5</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:974" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:974" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3257,7 +3257,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -3273,7 +3273,7 @@
       <c r="M9" s="30"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -3289,7 +3289,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="42"/>
     </row>
-    <row r="11" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -3305,7 +3305,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -3321,7 +3321,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="42"/>
     </row>
-    <row r="13" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -3337,7 +3337,7 @@
       <c r="M13" s="30"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -3353,7 +3353,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="42"/>
     </row>
-    <row r="15" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -3369,7 +3369,7 @@
       <c r="M15" s="30"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -3385,7 +3385,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="42"/>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -3401,7 +3401,7 @@
       <c r="M17" s="30"/>
       <c r="N17" s="31"/>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -3417,7 +3417,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="42"/>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -3433,7 +3433,7 @@
       <c r="M19" s="30"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -3449,7 +3449,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="42"/>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -3465,7 +3465,7 @@
       <c r="M21" s="30"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -3481,7 +3481,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="42"/>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -3497,7 +3497,7 @@
       <c r="M23" s="30"/>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -3513,7 +3513,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="42"/>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -3529,7 +3529,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -3545,7 +3545,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="42"/>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -3561,7 +3561,7 @@
       <c r="M27" s="30"/>
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -3577,7 +3577,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -3593,7 +3593,7 @@
       <c r="M29" s="30"/>
       <c r="N29" s="31"/>
     </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -3609,7 +3609,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="42"/>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -3625,7 +3625,7 @@
       <c r="M31" s="30"/>
       <c r="N31" s="31"/>
     </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -3641,7 +3641,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="42"/>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -3657,7 +3657,7 @@
       <c r="M33" s="30"/>
       <c r="N33" s="31"/>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -3673,7 +3673,7 @@
       <c r="M34" s="41"/>
       <c r="N34" s="42"/>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -3689,7 +3689,7 @@
       <c r="M35" s="30"/>
       <c r="N35" s="31"/>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -3705,7 +3705,7 @@
       <c r="M36" s="41"/>
       <c r="N36" s="42"/>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -3721,7 +3721,7 @@
       <c r="M37" s="30"/>
       <c r="N37" s="31"/>
     </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -3737,7 +3737,7 @@
       <c r="M38" s="41"/>
       <c r="N38" s="42"/>
     </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -3753,7 +3753,7 @@
       <c r="M39" s="30"/>
       <c r="N39" s="31"/>
     </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -3769,7 +3769,7 @@
       <c r="M40" s="41"/>
       <c r="N40" s="42"/>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -3785,7 +3785,7 @@
       <c r="M41" s="30"/>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -3801,7 +3801,7 @@
       <c r="M42" s="41"/>
       <c r="N42" s="42"/>
     </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -3817,7 +3817,7 @@
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -3833,7 +3833,7 @@
       <c r="M44" s="41"/>
       <c r="N44" s="42"/>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -3849,7 +3849,7 @@
       <c r="M45" s="30"/>
       <c r="N45" s="31"/>
     </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -3865,7 +3865,7 @@
       <c r="M46" s="41"/>
       <c r="N46" s="42"/>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -3881,7 +3881,7 @@
       <c r="M47" s="30"/>
       <c r="N47" s="31"/>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -3897,7 +3897,7 @@
       <c r="M48" s="41"/>
       <c r="N48" s="42"/>
     </row>
-    <row r="49" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -3913,7 +3913,7 @@
       <c r="M49" s="30"/>
       <c r="N49" s="31"/>
     </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -3929,7 +3929,7 @@
       <c r="M50" s="41"/>
       <c r="N50" s="42"/>
     </row>
-    <row r="51" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -3945,7 +3945,7 @@
       <c r="M51" s="30"/>
       <c r="N51" s="31"/>
     </row>
-    <row r="52" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -3961,7 +3961,7 @@
       <c r="M52" s="41"/>
       <c r="N52" s="42"/>
     </row>
-    <row r="53" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -3977,7 +3977,7 @@
       <c r="M53" s="30"/>
       <c r="N53" s="31"/>
     </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -3993,7 +3993,7 @@
       <c r="M54" s="41"/>
       <c r="N54" s="42"/>
     </row>
-    <row r="55" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
@@ -4009,7 +4009,7 @@
       <c r="M55" s="30"/>
       <c r="N55" s="31"/>
     </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -4025,7 +4025,7 @@
       <c r="M56" s="41"/>
       <c r="N56" s="42"/>
     </row>
-    <row r="57" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -4041,7 +4041,7 @@
       <c r="M57" s="30"/>
       <c r="N57" s="31"/>
     </row>
-    <row r="58" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -4057,7 +4057,7 @@
       <c r="M58" s="41"/>
       <c r="N58" s="42"/>
     </row>
-    <row r="59" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -4073,7 +4073,7 @@
       <c r="M59" s="30"/>
       <c r="N59" s="31"/>
     </row>
-    <row r="60" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -4089,7 +4089,7 @@
       <c r="M60" s="41"/>
       <c r="N60" s="42"/>
     </row>
-    <row r="61" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -4105,7 +4105,7 @@
       <c r="M61" s="30"/>
       <c r="N61" s="31"/>
     </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -4121,7 +4121,7 @@
       <c r="M62" s="41"/>
       <c r="N62" s="42"/>
     </row>
-    <row r="63" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -4137,7 +4137,7 @@
       <c r="M63" s="30"/>
       <c r="N63" s="31"/>
     </row>
-    <row r="64" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -4153,7 +4153,7 @@
       <c r="M64" s="41"/>
       <c r="N64" s="42"/>
     </row>
-    <row r="65" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -4169,7 +4169,7 @@
       <c r="M65" s="30"/>
       <c r="N65" s="31"/>
     </row>
-    <row r="66" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -4185,7 +4185,7 @@
       <c r="M66" s="41"/>
       <c r="N66" s="42"/>
     </row>
-    <row r="67" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
@@ -4201,7 +4201,7 @@
       <c r="M67" s="30"/>
       <c r="N67" s="31"/>
     </row>
-    <row r="68" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -4217,7 +4217,7 @@
       <c r="M68" s="41"/>
       <c r="N68" s="42"/>
     </row>
-    <row r="69" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
@@ -4233,7 +4233,7 @@
       <c r="M69" s="30"/>
       <c r="N69" s="31"/>
     </row>
-    <row r="70" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -4249,7 +4249,7 @@
       <c r="M70" s="41"/>
       <c r="N70" s="42"/>
     </row>
-    <row r="71" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
@@ -4265,7 +4265,7 @@
       <c r="M71" s="30"/>
       <c r="N71" s="31"/>
     </row>
-    <row r="72" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -4281,7 +4281,7 @@
       <c r="M72" s="41"/>
       <c r="N72" s="42"/>
     </row>
-    <row r="73" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
@@ -4297,7 +4297,7 @@
       <c r="M73" s="30"/>
       <c r="N73" s="31"/>
     </row>
-    <row r="74" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -4313,7 +4313,7 @@
       <c r="M74" s="41"/>
       <c r="N74" s="42"/>
     </row>
-    <row r="75" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -4329,7 +4329,7 @@
       <c r="M75" s="30"/>
       <c r="N75" s="31"/>
     </row>
-    <row r="76" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -4345,7 +4345,7 @@
       <c r="M76" s="41"/>
       <c r="N76" s="42"/>
     </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -4361,7 +4361,7 @@
       <c r="M77" s="30"/>
       <c r="N77" s="31"/>
     </row>
-    <row r="78" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -4377,7 +4377,7 @@
       <c r="M78" s="41"/>
       <c r="N78" s="42"/>
     </row>
-    <row r="79" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -4393,7 +4393,7 @@
       <c r="M79" s="30"/>
       <c r="N79" s="31"/>
     </row>
-    <row r="80" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -4409,7 +4409,7 @@
       <c r="M80" s="41"/>
       <c r="N80" s="42"/>
     </row>
-    <row r="81" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -4425,7 +4425,7 @@
       <c r="M81" s="30"/>
       <c r="N81" s="31"/>
     </row>
-    <row r="82" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -4441,7 +4441,7 @@
       <c r="M82" s="41"/>
       <c r="N82" s="42"/>
     </row>
-    <row r="83" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
@@ -4457,7 +4457,7 @@
       <c r="M83" s="30"/>
       <c r="N83" s="31"/>
     </row>
-    <row r="84" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -4473,7 +4473,7 @@
       <c r="M84" s="41"/>
       <c r="N84" s="42"/>
     </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24"/>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -4489,7 +4489,7 @@
       <c r="M85" s="30"/>
       <c r="N85" s="31"/>
     </row>
-    <row r="86" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -4505,7 +4505,7 @@
       <c r="M86" s="41"/>
       <c r="N86" s="42"/>
     </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
@@ -4521,7 +4521,7 @@
       <c r="M87" s="30"/>
       <c r="N87" s="31"/>
     </row>
-    <row r="88" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -4537,7 +4537,7 @@
       <c r="M88" s="41"/>
       <c r="N88" s="42"/>
     </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
@@ -4553,7 +4553,7 @@
       <c r="M89" s="30"/>
       <c r="N89" s="31"/>
     </row>
-    <row r="90" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -4569,7 +4569,7 @@
       <c r="M90" s="41"/>
       <c r="N90" s="42"/>
     </row>
-    <row r="91" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -4585,7 +4585,7 @@
       <c r="M91" s="30"/>
       <c r="N91" s="31"/>
     </row>
-    <row r="92" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -4601,7 +4601,7 @@
       <c r="M92" s="41"/>
       <c r="N92" s="42"/>
     </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24"/>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -4617,7 +4617,7 @@
       <c r="M93" s="30"/>
       <c r="N93" s="31"/>
     </row>
-    <row r="94" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -4633,7 +4633,7 @@
       <c r="M94" s="41"/>
       <c r="N94" s="42"/>
     </row>
-    <row r="95" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
@@ -4649,7 +4649,7 @@
       <c r="M95" s="30"/>
       <c r="N95" s="31"/>
     </row>
-    <row r="96" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
@@ -4665,7 +4665,7 @@
       <c r="M96" s="41"/>
       <c r="N96" s="42"/>
     </row>
-    <row r="97" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="24"/>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -4681,7 +4681,7 @@
       <c r="M97" s="30"/>
       <c r="N97" s="31"/>
     </row>
-    <row r="98" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
@@ -4697,7 +4697,7 @@
       <c r="M98" s="41"/>
       <c r="N98" s="42"/>
     </row>
-    <row r="99" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24"/>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -4713,7 +4713,7 @@
       <c r="M99" s="30"/>
       <c r="N99" s="31"/>
     </row>
-    <row r="100" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
@@ -4729,7 +4729,7 @@
       <c r="M100" s="41"/>
       <c r="N100" s="42"/>
     </row>
-    <row r="101" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24"/>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
@@ -4745,7 +4745,7 @@
       <c r="M101" s="30"/>
       <c r="N101" s="31"/>
     </row>
-    <row r="102" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="33"/>
       <c r="C102" s="33"/>
@@ -4761,7 +4761,7 @@
       <c r="M102" s="41"/>
       <c r="N102" s="42"/>
     </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="24"/>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
@@ -4777,7 +4777,7 @@
       <c r="M103" s="30"/>
       <c r="N103" s="31"/>
     </row>
-    <row r="104" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="33"/>
       <c r="C104" s="33"/>
@@ -4793,7 +4793,7 @@
       <c r="M104" s="41"/>
       <c r="N104" s="42"/>
     </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24"/>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
@@ -4809,7 +4809,7 @@
       <c r="M105" s="30"/>
       <c r="N105" s="31"/>
     </row>
-    <row r="106" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="33"/>
       <c r="C106" s="33"/>
@@ -4825,7 +4825,7 @@
       <c r="M106" s="41"/>
       <c r="N106" s="42"/>
     </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -4841,7 +4841,7 @@
       <c r="M107" s="30"/>
       <c r="N107" s="31"/>
     </row>
-    <row r="108" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
@@ -4857,7 +4857,7 @@
       <c r="M108" s="41"/>
       <c r="N108" s="42"/>
     </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24"/>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
@@ -4873,7 +4873,7 @@
       <c r="M109" s="30"/>
       <c r="N109" s="31"/>
     </row>
-    <row r="110" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="33"/>
       <c r="C110" s="33"/>
@@ -4889,7 +4889,7 @@
       <c r="M110" s="41"/>
       <c r="N110" s="42"/>
     </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24"/>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
@@ -4905,7 +4905,7 @@
       <c r="M111" s="30"/>
       <c r="N111" s="31"/>
     </row>
-    <row r="112" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
@@ -4921,7 +4921,7 @@
       <c r="M112" s="41"/>
       <c r="N112" s="42"/>
     </row>
-    <row r="113" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="24"/>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
@@ -4937,7 +4937,7 @@
       <c r="M113" s="30"/>
       <c r="N113" s="31"/>
     </row>
-    <row r="114" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="33"/>
       <c r="B114" s="33"/>
       <c r="C114" s="33"/>
@@ -4953,7 +4953,7 @@
       <c r="M114" s="41"/>
       <c r="N114" s="42"/>
     </row>
-    <row r="115" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
@@ -4969,7 +4969,7 @@
       <c r="M115" s="30"/>
       <c r="N115" s="31"/>
     </row>
-    <row r="116" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="33"/>
       <c r="B116" s="33"/>
       <c r="C116" s="33"/>
@@ -4985,7 +4985,7 @@
       <c r="M116" s="41"/>
       <c r="N116" s="42"/>
     </row>
-    <row r="117" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24"/>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
@@ -5001,7 +5001,7 @@
       <c r="M117" s="30"/>
       <c r="N117" s="31"/>
     </row>
-    <row r="118" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="33"/>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
@@ -5017,7 +5017,7 @@
       <c r="M118" s="41"/>
       <c r="N118" s="42"/>
     </row>
-    <row r="119" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
@@ -5033,7 +5033,7 @@
       <c r="M119" s="30"/>
       <c r="N119" s="31"/>
     </row>
-    <row r="120" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="33"/>
       <c r="B120" s="33"/>
       <c r="C120" s="33"/>
@@ -5049,7 +5049,7 @@
       <c r="M120" s="41"/>
       <c r="N120" s="42"/>
     </row>
-    <row r="121" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="24"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -5065,7 +5065,7 @@
       <c r="M121" s="30"/>
       <c r="N121" s="31"/>
     </row>
-    <row r="122" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="33"/>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -5081,7 +5081,7 @@
       <c r="M122" s="41"/>
       <c r="N122" s="42"/>
     </row>
-    <row r="123" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -5097,7 +5097,7 @@
       <c r="M123" s="30"/>
       <c r="N123" s="31"/>
     </row>
-    <row r="124" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="33"/>
       <c r="B124" s="33"/>
       <c r="C124" s="33"/>
@@ -5113,7 +5113,7 @@
       <c r="M124" s="41"/>
       <c r="N124" s="42"/>
     </row>
-    <row r="125" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
@@ -5129,7 +5129,7 @@
       <c r="M125" s="30"/>
       <c r="N125" s="31"/>
     </row>
-    <row r="126" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="33"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
@@ -5145,7 +5145,7 @@
       <c r="M126" s="41"/>
       <c r="N126" s="42"/>
     </row>
-    <row r="127" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
@@ -5161,7 +5161,7 @@
       <c r="M127" s="30"/>
       <c r="N127" s="31"/>
     </row>
-    <row r="128" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
       <c r="C128" s="33"/>
@@ -5177,7 +5177,7 @@
       <c r="M128" s="41"/>
       <c r="N128" s="42"/>
     </row>
-    <row r="129" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
@@ -5193,7 +5193,7 @@
       <c r="M129" s="30"/>
       <c r="N129" s="31"/>
     </row>
-    <row r="130" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="33"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
@@ -5209,7 +5209,7 @@
       <c r="M130" s="41"/>
       <c r="N130" s="42"/>
     </row>
-    <row r="131" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
@@ -5225,7 +5225,7 @@
       <c r="M131" s="30"/>
       <c r="N131" s="31"/>
     </row>
-    <row r="132" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
@@ -5241,7 +5241,7 @@
       <c r="M132" s="41"/>
       <c r="N132" s="42"/>
     </row>
-    <row r="133" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
@@ -5257,7 +5257,7 @@
       <c r="M133" s="30"/>
       <c r="N133" s="31"/>
     </row>
-    <row r="134" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="33"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -5273,7 +5273,7 @@
       <c r="M134" s="41"/>
       <c r="N134" s="42"/>
     </row>
-    <row r="135" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
@@ -5289,7 +5289,7 @@
       <c r="M135" s="30"/>
       <c r="N135" s="31"/>
     </row>
-    <row r="136" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="33"/>
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
@@ -5305,7 +5305,7 @@
       <c r="M136" s="41"/>
       <c r="N136" s="42"/>
     </row>
-    <row r="137" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -5321,7 +5321,7 @@
       <c r="M137" s="30"/>
       <c r="N137" s="31"/>
     </row>
-    <row r="138" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="33"/>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
@@ -5337,7 +5337,7 @@
       <c r="M138" s="41"/>
       <c r="N138" s="42"/>
     </row>
-    <row r="139" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
@@ -5353,7 +5353,7 @@
       <c r="M139" s="30"/>
       <c r="N139" s="31"/>
     </row>
-    <row r="140" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="33"/>
       <c r="B140" s="33"/>
       <c r="C140" s="33"/>
@@ -5369,7 +5369,7 @@
       <c r="M140" s="41"/>
       <c r="N140" s="42"/>
     </row>
-    <row r="141" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
@@ -5385,7 +5385,7 @@
       <c r="M141" s="30"/>
       <c r="N141" s="31"/>
     </row>
-    <row r="142" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="33"/>
       <c r="B142" s="33"/>
       <c r="C142" s="33"/>
@@ -5401,7 +5401,7 @@
       <c r="M142" s="41"/>
       <c r="N142" s="42"/>
     </row>
-    <row r="143" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
@@ -5417,7 +5417,7 @@
       <c r="M143" s="30"/>
       <c r="N143" s="31"/>
     </row>
-    <row r="144" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="33"/>
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
@@ -5433,7 +5433,7 @@
       <c r="M144" s="41"/>
       <c r="N144" s="42"/>
     </row>
-    <row r="145" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24"/>
       <c r="B145" s="24"/>
       <c r="C145" s="24"/>
@@ -5449,7 +5449,7 @@
       <c r="M145" s="30"/>
       <c r="N145" s="31"/>
     </row>
-    <row r="146" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="33"/>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
@@ -5465,7 +5465,7 @@
       <c r="M146" s="41"/>
       <c r="N146" s="42"/>
     </row>
-    <row r="147" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="24"/>
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
@@ -5481,7 +5481,7 @@
       <c r="M147" s="30"/>
       <c r="N147" s="31"/>
     </row>
-    <row r="148" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="33"/>
       <c r="B148" s="33"/>
       <c r="C148" s="33"/>
@@ -5497,7 +5497,7 @@
       <c r="M148" s="41"/>
       <c r="N148" s="42"/>
     </row>
-    <row r="149" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="24"/>
       <c r="B149" s="24"/>
       <c r="C149" s="24"/>
@@ -5513,7 +5513,7 @@
       <c r="M149" s="30"/>
       <c r="N149" s="31"/>
     </row>
-    <row r="150" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="33"/>
       <c r="B150" s="33"/>
       <c r="C150" s="33"/>
@@ -5529,7 +5529,7 @@
       <c r="M150" s="41"/>
       <c r="N150" s="42"/>
     </row>
-    <row r="151" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="24"/>
       <c r="B151" s="24"/>
       <c r="C151" s="24"/>
@@ -5545,7 +5545,7 @@
       <c r="M151" s="30"/>
       <c r="N151" s="31"/>
     </row>
-    <row r="152" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="33"/>
       <c r="B152" s="33"/>
       <c r="C152" s="33"/>
@@ -5561,7 +5561,7 @@
       <c r="M152" s="41"/>
       <c r="N152" s="42"/>
     </row>
-    <row r="153" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
       <c r="C153" s="24"/>
@@ -5577,7 +5577,7 @@
       <c r="M153" s="30"/>
       <c r="N153" s="31"/>
     </row>
-    <row r="154" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="33"/>
       <c r="B154" s="33"/>
       <c r="C154" s="33"/>
@@ -5593,7 +5593,7 @@
       <c r="M154" s="41"/>
       <c r="N154" s="42"/>
     </row>
-    <row r="155" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
@@ -5609,7 +5609,7 @@
       <c r="M155" s="30"/>
       <c r="N155" s="31"/>
     </row>
-    <row r="156" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="33"/>
       <c r="B156" s="33"/>
       <c r="C156" s="33"/>
@@ -5625,7 +5625,7 @@
       <c r="M156" s="41"/>
       <c r="N156" s="42"/>
     </row>
-    <row r="157" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="24"/>
       <c r="B157" s="24"/>
       <c r="C157" s="24"/>
@@ -5641,7 +5641,7 @@
       <c r="M157" s="30"/>
       <c r="N157" s="31"/>
     </row>
-    <row r="158" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="33"/>
       <c r="B158" s="33"/>
       <c r="C158" s="33"/>
@@ -5657,7 +5657,7 @@
       <c r="M158" s="41"/>
       <c r="N158" s="42"/>
     </row>
-    <row r="159" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="24"/>
       <c r="B159" s="24"/>
       <c r="C159" s="24"/>
@@ -5673,7 +5673,7 @@
       <c r="M159" s="30"/>
       <c r="N159" s="31"/>
     </row>
-    <row r="160" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="33"/>
       <c r="B160" s="33"/>
       <c r="C160" s="33"/>
@@ -5689,7 +5689,7 @@
       <c r="M160" s="41"/>
       <c r="N160" s="42"/>
     </row>
-    <row r="161" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="24"/>
       <c r="B161" s="24"/>
       <c r="C161" s="24"/>
@@ -5705,7 +5705,7 @@
       <c r="M161" s="30"/>
       <c r="N161" s="31"/>
     </row>
-    <row r="162" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="33"/>
       <c r="B162" s="33"/>
       <c r="C162" s="33"/>
@@ -5721,7 +5721,7 @@
       <c r="M162" s="41"/>
       <c r="N162" s="42"/>
     </row>
-    <row r="163" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="24"/>
       <c r="B163" s="24"/>
       <c r="C163" s="24"/>
@@ -5737,7 +5737,7 @@
       <c r="M163" s="30"/>
       <c r="N163" s="31"/>
     </row>
-    <row r="164" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="33"/>
       <c r="B164" s="33"/>
       <c r="C164" s="33"/>
@@ -5753,7 +5753,7 @@
       <c r="M164" s="41"/>
       <c r="N164" s="42"/>
     </row>
-    <row r="165" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="24"/>
       <c r="B165" s="24"/>
       <c r="C165" s="24"/>
@@ -5769,7 +5769,7 @@
       <c r="M165" s="30"/>
       <c r="N165" s="31"/>
     </row>
-    <row r="166" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="33"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
@@ -5785,7 +5785,7 @@
       <c r="M166" s="41"/>
       <c r="N166" s="42"/>
     </row>
-    <row r="167" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="24"/>
       <c r="B167" s="24"/>
       <c r="C167" s="24"/>
@@ -5801,7 +5801,7 @@
       <c r="M167" s="30"/>
       <c r="N167" s="31"/>
     </row>
-    <row r="168" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="33"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
@@ -5817,7 +5817,7 @@
       <c r="M168" s="41"/>
       <c r="N168" s="42"/>
     </row>
-    <row r="169" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="24"/>
       <c r="B169" s="24"/>
       <c r="C169" s="24"/>
@@ -5833,7 +5833,7 @@
       <c r="M169" s="30"/>
       <c r="N169" s="31"/>
     </row>
-    <row r="170" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="33"/>
       <c r="B170" s="33"/>
       <c r="C170" s="33"/>
@@ -5849,7 +5849,7 @@
       <c r="M170" s="41"/>
       <c r="N170" s="42"/>
     </row>
-    <row r="171" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="24"/>
       <c r="B171" s="24"/>
       <c r="C171" s="24"/>
@@ -5865,7 +5865,7 @@
       <c r="M171" s="30"/>
       <c r="N171" s="31"/>
     </row>
-    <row r="172" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="33"/>
       <c r="B172" s="33"/>
       <c r="C172" s="33"/>
@@ -5881,7 +5881,7 @@
       <c r="M172" s="41"/>
       <c r="N172" s="42"/>
     </row>
-    <row r="173" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="24"/>
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
@@ -5897,7 +5897,7 @@
       <c r="M173" s="30"/>
       <c r="N173" s="31"/>
     </row>
-    <row r="174" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="33"/>
       <c r="B174" s="33"/>
       <c r="C174" s="33"/>
@@ -5913,7 +5913,7 @@
       <c r="M174" s="41"/>
       <c r="N174" s="42"/>
     </row>
-    <row r="175" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="24"/>
       <c r="B175" s="24"/>
       <c r="C175" s="24"/>
@@ -5929,7 +5929,7 @@
       <c r="M175" s="30"/>
       <c r="N175" s="31"/>
     </row>
-    <row r="176" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="33"/>
       <c r="B176" s="33"/>
       <c r="C176" s="33"/>
@@ -5945,7 +5945,7 @@
       <c r="M176" s="41"/>
       <c r="N176" s="42"/>
     </row>
-    <row r="177" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="24"/>
       <c r="B177" s="24"/>
       <c r="C177" s="24"/>
@@ -5961,7 +5961,7 @@
       <c r="M177" s="30"/>
       <c r="N177" s="31"/>
     </row>
-    <row r="178" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="33"/>
       <c r="B178" s="33"/>
       <c r="C178" s="33"/>
@@ -5977,7 +5977,7 @@
       <c r="M178" s="41"/>
       <c r="N178" s="42"/>
     </row>
-    <row r="179" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="24"/>
       <c r="B179" s="24"/>
       <c r="C179" s="24"/>
@@ -5993,7 +5993,7 @@
       <c r="M179" s="30"/>
       <c r="N179" s="31"/>
     </row>
-    <row r="180" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="33"/>
       <c r="B180" s="33"/>
       <c r="C180" s="33"/>
@@ -6009,7 +6009,7 @@
       <c r="M180" s="41"/>
       <c r="N180" s="42"/>
     </row>
-    <row r="181" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="24"/>
       <c r="B181" s="24"/>
       <c r="C181" s="24"/>
@@ -6025,7 +6025,7 @@
       <c r="M181" s="30"/>
       <c r="N181" s="31"/>
     </row>
-    <row r="182" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="33"/>
       <c r="B182" s="33"/>
       <c r="C182" s="33"/>
@@ -6041,7 +6041,7 @@
       <c r="M182" s="41"/>
       <c r="N182" s="42"/>
     </row>
-    <row r="183" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="24"/>
       <c r="B183" s="24"/>
       <c r="C183" s="24"/>
@@ -6057,7 +6057,7 @@
       <c r="M183" s="30"/>
       <c r="N183" s="31"/>
     </row>
-    <row r="184" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="33"/>
       <c r="B184" s="33"/>
       <c r="C184" s="33"/>
@@ -6073,7 +6073,7 @@
       <c r="M184" s="41"/>
       <c r="N184" s="42"/>
     </row>
-    <row r="185" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="24"/>
       <c r="B185" s="24"/>
       <c r="C185" s="24"/>
@@ -6089,7 +6089,7 @@
       <c r="M185" s="30"/>
       <c r="N185" s="31"/>
     </row>
-    <row r="186" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="33"/>
       <c r="B186" s="33"/>
       <c r="C186" s="33"/>
@@ -6105,7 +6105,7 @@
       <c r="M186" s="41"/>
       <c r="N186" s="42"/>
     </row>
-    <row r="187" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="24"/>
       <c r="B187" s="24"/>
       <c r="C187" s="24"/>
@@ -6121,7 +6121,7 @@
       <c r="M187" s="30"/>
       <c r="N187" s="31"/>
     </row>
-    <row r="188" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="33"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
@@ -6137,7 +6137,7 @@
       <c r="M188" s="41"/>
       <c r="N188" s="42"/>
     </row>
-    <row r="189" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="24"/>
       <c r="B189" s="24"/>
       <c r="C189" s="24"/>
@@ -6153,7 +6153,7 @@
       <c r="M189" s="30"/>
       <c r="N189" s="31"/>
     </row>
-    <row r="190" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="33"/>
       <c r="B190" s="33"/>
       <c r="C190" s="33"/>
@@ -6169,7 +6169,7 @@
       <c r="M190" s="41"/>
       <c r="N190" s="42"/>
     </row>
-    <row r="191" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="24"/>
       <c r="B191" s="24"/>
       <c r="C191" s="24"/>
@@ -6185,7 +6185,7 @@
       <c r="M191" s="30"/>
       <c r="N191" s="31"/>
     </row>
-    <row r="192" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="33"/>
       <c r="B192" s="33"/>
       <c r="C192" s="33"/>
@@ -6201,7 +6201,7 @@
       <c r="M192" s="41"/>
       <c r="N192" s="42"/>
     </row>
-    <row r="193" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="24"/>
       <c r="B193" s="24"/>
       <c r="C193" s="24"/>
@@ -6217,7 +6217,7 @@
       <c r="M193" s="30"/>
       <c r="N193" s="31"/>
     </row>
-    <row r="194" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="33"/>
       <c r="B194" s="33"/>
       <c r="C194" s="33"/>
@@ -6233,7 +6233,7 @@
       <c r="M194" s="41"/>
       <c r="N194" s="42"/>
     </row>
-    <row r="195" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="24"/>
       <c r="B195" s="24"/>
       <c r="C195" s="24"/>
@@ -6249,7 +6249,7 @@
       <c r="M195" s="30"/>
       <c r="N195" s="31"/>
     </row>
-    <row r="196" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="33"/>
       <c r="B196" s="33"/>
       <c r="C196" s="33"/>
@@ -6265,7 +6265,7 @@
       <c r="M196" s="41"/>
       <c r="N196" s="42"/>
     </row>
-    <row r="197" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="24"/>
       <c r="B197" s="24"/>
       <c r="C197" s="24"/>
@@ -6281,7 +6281,7 @@
       <c r="M197" s="30"/>
       <c r="N197" s="31"/>
     </row>
-    <row r="198" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="33"/>
       <c r="B198" s="33"/>
       <c r="C198" s="33"/>
@@ -6297,7 +6297,7 @@
       <c r="M198" s="41"/>
       <c r="N198" s="42"/>
     </row>
-    <row r="199" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="24"/>
       <c r="B199" s="24"/>
       <c r="C199" s="24"/>
@@ -6313,7 +6313,7 @@
       <c r="M199" s="30"/>
       <c r="N199" s="31"/>
     </row>
-    <row r="200" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="33"/>
       <c r="B200" s="33"/>
       <c r="C200" s="33"/>
@@ -6329,7 +6329,7 @@
       <c r="M200" s="41"/>
       <c r="N200" s="42"/>
     </row>
-    <row r="201" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="24"/>
       <c r="B201" s="24"/>
       <c r="C201" s="24"/>
@@ -6345,7 +6345,7 @@
       <c r="M201" s="30"/>
       <c r="N201" s="31"/>
     </row>
-    <row r="202" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="33"/>
       <c r="B202" s="33"/>
       <c r="C202" s="33"/>
@@ -6361,7 +6361,7 @@
       <c r="M202" s="41"/>
       <c r="N202" s="42"/>
     </row>
-    <row r="203" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="24"/>
       <c r="B203" s="24"/>
       <c r="C203" s="24"/>
@@ -6377,7 +6377,7 @@
       <c r="M203" s="30"/>
       <c r="N203" s="31"/>
     </row>
-    <row r="204" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="33"/>
       <c r="B204" s="33"/>
       <c r="C204" s="33"/>
@@ -6393,7 +6393,7 @@
       <c r="M204" s="41"/>
       <c r="N204" s="42"/>
     </row>
-    <row r="205" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="24"/>
       <c r="B205" s="24"/>
       <c r="C205" s="24"/>
@@ -6409,7 +6409,7 @@
       <c r="M205" s="30"/>
       <c r="N205" s="31"/>
     </row>
-    <row r="206" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="33"/>
       <c r="B206" s="33"/>
       <c r="C206" s="33"/>
@@ -6425,7 +6425,7 @@
       <c r="M206" s="41"/>
       <c r="N206" s="42"/>
     </row>
-    <row r="207" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="24"/>
       <c r="B207" s="24"/>
       <c r="C207" s="24"/>
@@ -6441,7 +6441,7 @@
       <c r="M207" s="30"/>
       <c r="N207" s="31"/>
     </row>
-    <row r="208" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="33"/>
       <c r="B208" s="33"/>
       <c r="C208" s="33"/>
@@ -6457,7 +6457,7 @@
       <c r="M208" s="41"/>
       <c r="N208" s="42"/>
     </row>
-    <row r="209" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="24"/>
       <c r="B209" s="24"/>
       <c r="C209" s="24"/>
@@ -6473,7 +6473,7 @@
       <c r="M209" s="30"/>
       <c r="N209" s="31"/>
     </row>
-    <row r="210" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="33"/>
       <c r="B210" s="33"/>
       <c r="C210" s="33"/>
@@ -6489,7 +6489,7 @@
       <c r="M210" s="41"/>
       <c r="N210" s="42"/>
     </row>
-    <row r="211" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="24"/>
       <c r="B211" s="24"/>
       <c r="C211" s="24"/>
@@ -6505,7 +6505,7 @@
       <c r="M211" s="30"/>
       <c r="N211" s="31"/>
     </row>
-    <row r="212" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="33"/>
       <c r="B212" s="33"/>
       <c r="C212" s="33"/>
@@ -6521,7 +6521,7 @@
       <c r="M212" s="41"/>
       <c r="N212" s="42"/>
     </row>
-    <row r="213" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="24"/>
       <c r="B213" s="24"/>
       <c r="C213" s="24"/>
@@ -6537,7 +6537,7 @@
       <c r="M213" s="30"/>
       <c r="N213" s="31"/>
     </row>
-    <row r="214" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="33"/>
       <c r="B214" s="33"/>
       <c r="C214" s="33"/>
@@ -6553,7 +6553,7 @@
       <c r="M214" s="41"/>
       <c r="N214" s="42"/>
     </row>
-    <row r="215" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="24"/>
       <c r="B215" s="24"/>
       <c r="C215" s="24"/>
@@ -6569,7 +6569,7 @@
       <c r="M215" s="30"/>
       <c r="N215" s="31"/>
     </row>
-    <row r="216" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="33"/>
       <c r="B216" s="33"/>
       <c r="C216" s="33"/>
@@ -6585,7 +6585,7 @@
       <c r="M216" s="41"/>
       <c r="N216" s="42"/>
     </row>
-    <row r="217" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="24"/>
       <c r="B217" s="24"/>
       <c r="C217" s="24"/>
@@ -6601,7 +6601,7 @@
       <c r="M217" s="30"/>
       <c r="N217" s="31"/>
     </row>
-    <row r="218" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="33"/>
       <c r="B218" s="33"/>
       <c r="C218" s="33"/>
@@ -6617,7 +6617,7 @@
       <c r="M218" s="41"/>
       <c r="N218" s="42"/>
     </row>
-    <row r="219" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="24"/>
       <c r="B219" s="24"/>
       <c r="C219" s="24"/>
@@ -6633,7 +6633,7 @@
       <c r="M219" s="30"/>
       <c r="N219" s="31"/>
     </row>
-    <row r="220" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="33"/>
       <c r="B220" s="33"/>
       <c r="C220" s="33"/>
@@ -6649,7 +6649,7 @@
       <c r="M220" s="41"/>
       <c r="N220" s="42"/>
     </row>
-    <row r="221" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="24"/>
       <c r="B221" s="24"/>
       <c r="C221" s="24"/>
@@ -6665,7 +6665,7 @@
       <c r="M221" s="30"/>
       <c r="N221" s="31"/>
     </row>
-    <row r="222" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="33"/>
       <c r="B222" s="33"/>
       <c r="C222" s="33"/>
@@ -6681,7 +6681,7 @@
       <c r="M222" s="41"/>
       <c r="N222" s="42"/>
     </row>
-    <row r="223" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="24"/>
       <c r="B223" s="24"/>
       <c r="C223" s="24"/>
@@ -6697,7 +6697,7 @@
       <c r="M223" s="30"/>
       <c r="N223" s="31"/>
     </row>
-    <row r="224" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="33"/>
       <c r="B224" s="33"/>
       <c r="C224" s="33"/>
@@ -6713,7 +6713,7 @@
       <c r="M224" s="41"/>
       <c r="N224" s="42"/>
     </row>
-    <row r="225" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="24"/>
       <c r="B225" s="24"/>
       <c r="C225" s="24"/>
@@ -6729,7 +6729,7 @@
       <c r="M225" s="30"/>
       <c r="N225" s="31"/>
     </row>
-    <row r="226" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="33"/>
       <c r="B226" s="33"/>
       <c r="C226" s="33"/>
@@ -6745,7 +6745,7 @@
       <c r="M226" s="41"/>
       <c r="N226" s="42"/>
     </row>
-    <row r="227" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="24"/>
       <c r="B227" s="24"/>
       <c r="C227" s="24"/>
@@ -6761,7 +6761,7 @@
       <c r="M227" s="30"/>
       <c r="N227" s="31"/>
     </row>
-    <row r="228" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="33"/>
       <c r="B228" s="33"/>
       <c r="C228" s="33"/>
@@ -6777,7 +6777,7 @@
       <c r="M228" s="41"/>
       <c r="N228" s="42"/>
     </row>
-    <row r="229" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="24"/>
       <c r="B229" s="24"/>
       <c r="C229" s="24"/>
@@ -6793,7 +6793,7 @@
       <c r="M229" s="30"/>
       <c r="N229" s="31"/>
     </row>
-    <row r="230" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="33"/>
       <c r="B230" s="33"/>
       <c r="C230" s="33"/>
@@ -6809,7 +6809,7 @@
       <c r="M230" s="41"/>
       <c r="N230" s="42"/>
     </row>
-    <row r="231" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="24"/>
       <c r="B231" s="24"/>
       <c r="C231" s="24"/>
@@ -6825,7 +6825,7 @@
       <c r="M231" s="30"/>
       <c r="N231" s="31"/>
     </row>
-    <row r="232" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="33"/>
       <c r="B232" s="33"/>
       <c r="C232" s="33"/>
@@ -6841,7 +6841,7 @@
       <c r="M232" s="41"/>
       <c r="N232" s="42"/>
     </row>
-    <row r="233" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="24"/>
       <c r="B233" s="24"/>
       <c r="C233" s="24"/>
@@ -6857,7 +6857,7 @@
       <c r="M233" s="30"/>
       <c r="N233" s="31"/>
     </row>
-    <row r="234" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="33"/>
       <c r="B234" s="33"/>
       <c r="C234" s="33"/>
@@ -6873,7 +6873,7 @@
       <c r="M234" s="41"/>
       <c r="N234" s="42"/>
     </row>
-    <row r="235" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="24"/>
       <c r="B235" s="24"/>
       <c r="C235" s="24"/>
@@ -6889,7 +6889,7 @@
       <c r="M235" s="30"/>
       <c r="N235" s="31"/>
     </row>
-    <row r="236" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="33"/>
       <c r="B236" s="33"/>
       <c r="C236" s="33"/>
@@ -6905,7 +6905,7 @@
       <c r="M236" s="41"/>
       <c r="N236" s="42"/>
     </row>
-    <row r="237" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="24"/>
       <c r="B237" s="24"/>
       <c r="C237" s="24"/>
@@ -6921,7 +6921,7 @@
       <c r="M237" s="30"/>
       <c r="N237" s="31"/>
     </row>
-    <row r="238" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="33"/>
       <c r="B238" s="33"/>
       <c r="C238" s="33"/>
@@ -6937,7 +6937,7 @@
       <c r="M238" s="41"/>
       <c r="N238" s="42"/>
     </row>
-    <row r="239" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="24"/>
       <c r="B239" s="24"/>
       <c r="C239" s="24"/>
@@ -6953,7 +6953,7 @@
       <c r="M239" s="30"/>
       <c r="N239" s="31"/>
     </row>
-    <row r="240" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="33"/>
       <c r="B240" s="33"/>
       <c r="C240" s="33"/>
@@ -6969,7 +6969,7 @@
       <c r="M240" s="41"/>
       <c r="N240" s="42"/>
     </row>
-    <row r="241" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="24"/>
       <c r="B241" s="24"/>
       <c r="C241" s="24"/>
@@ -6985,7 +6985,7 @@
       <c r="M241" s="30"/>
       <c r="N241" s="31"/>
     </row>
-    <row r="242" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="33"/>
       <c r="B242" s="33"/>
       <c r="C242" s="33"/>
@@ -7001,7 +7001,7 @@
       <c r="M242" s="41"/>
       <c r="N242" s="42"/>
     </row>
-    <row r="243" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="24"/>
       <c r="B243" s="24"/>
       <c r="C243" s="24"/>
@@ -7017,7 +7017,7 @@
       <c r="M243" s="30"/>
       <c r="N243" s="31"/>
     </row>
-    <row r="244" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="33"/>
       <c r="B244" s="33"/>
       <c r="C244" s="33"/>
@@ -7033,7 +7033,7 @@
       <c r="M244" s="41"/>
       <c r="N244" s="42"/>
     </row>
-    <row r="245" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="24"/>
       <c r="B245" s="24"/>
       <c r="C245" s="24"/>
@@ -7049,7 +7049,7 @@
       <c r="M245" s="30"/>
       <c r="N245" s="31"/>
     </row>
-    <row r="246" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="33"/>
       <c r="B246" s="33"/>
       <c r="C246" s="33"/>
@@ -7065,7 +7065,7 @@
       <c r="M246" s="41"/>
       <c r="N246" s="42"/>
     </row>
-    <row r="247" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="24"/>
       <c r="B247" s="24"/>
       <c r="C247" s="24"/>
@@ -7081,7 +7081,7 @@
       <c r="M247" s="30"/>
       <c r="N247" s="31"/>
     </row>
-    <row r="248" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="33"/>
       <c r="B248" s="33"/>
       <c r="C248" s="33"/>
@@ -7097,7 +7097,7 @@
       <c r="M248" s="41"/>
       <c r="N248" s="42"/>
     </row>
-    <row r="249" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="24"/>
       <c r="B249" s="24"/>
       <c r="C249" s="24"/>
@@ -7113,7 +7113,7 @@
       <c r="M249" s="30"/>
       <c r="N249" s="31"/>
     </row>
-    <row r="250" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="33"/>
       <c r="B250" s="33"/>
       <c r="C250" s="33"/>
@@ -7129,7 +7129,7 @@
       <c r="M250" s="41"/>
       <c r="N250" s="42"/>
     </row>
-    <row r="251" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="24"/>
       <c r="B251" s="24"/>
       <c r="C251" s="24"/>
@@ -7145,7 +7145,7 @@
       <c r="M251" s="30"/>
       <c r="N251" s="31"/>
     </row>
-    <row r="252" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="33"/>
       <c r="B252" s="33"/>
       <c r="C252" s="33"/>
@@ -7161,7 +7161,7 @@
       <c r="M252" s="41"/>
       <c r="N252" s="42"/>
     </row>
-    <row r="253" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="24"/>
       <c r="B253" s="24"/>
       <c r="C253" s="24"/>
@@ -7177,7 +7177,7 @@
       <c r="M253" s="30"/>
       <c r="N253" s="31"/>
     </row>
-    <row r="254" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="33"/>
       <c r="B254" s="33"/>
       <c r="C254" s="33"/>
@@ -7193,7 +7193,7 @@
       <c r="M254" s="41"/>
       <c r="N254" s="42"/>
     </row>
-    <row r="255" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="24"/>
       <c r="B255" s="24"/>
       <c r="C255" s="24"/>
@@ -7209,7 +7209,7 @@
       <c r="M255" s="30"/>
       <c r="N255" s="31"/>
     </row>
-    <row r="256" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="33"/>
       <c r="B256" s="33"/>
       <c r="C256" s="33"/>
@@ -7225,7 +7225,7 @@
       <c r="M256" s="41"/>
       <c r="N256" s="42"/>
     </row>
-    <row r="257" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="24"/>
       <c r="B257" s="24"/>
       <c r="C257" s="24"/>
@@ -7241,7 +7241,7 @@
       <c r="M257" s="30"/>
       <c r="N257" s="31"/>
     </row>
-    <row r="258" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="33"/>
       <c r="B258" s="33"/>
       <c r="C258" s="33"/>
@@ -7257,7 +7257,7 @@
       <c r="M258" s="41"/>
       <c r="N258" s="42"/>
     </row>
-    <row r="259" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="24"/>
       <c r="B259" s="24"/>
       <c r="C259" s="24"/>
@@ -7273,7 +7273,7 @@
       <c r="M259" s="30"/>
       <c r="N259" s="31"/>
     </row>
-    <row r="260" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="33"/>
       <c r="B260" s="33"/>
       <c r="C260" s="33"/>
@@ -7289,7 +7289,7 @@
       <c r="M260" s="41"/>
       <c r="N260" s="42"/>
     </row>
-    <row r="261" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="24"/>
       <c r="B261" s="24"/>
       <c r="C261" s="24"/>
@@ -7305,7 +7305,7 @@
       <c r="M261" s="30"/>
       <c r="N261" s="31"/>
     </row>
-    <row r="262" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="33"/>
       <c r="B262" s="33"/>
       <c r="C262" s="33"/>
@@ -7321,7 +7321,7 @@
       <c r="M262" s="41"/>
       <c r="N262" s="42"/>
     </row>
-    <row r="263" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="24"/>
       <c r="B263" s="24"/>
       <c r="C263" s="24"/>
@@ -7337,7 +7337,7 @@
       <c r="M263" s="30"/>
       <c r="N263" s="31"/>
     </row>
-    <row r="264" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="33"/>
       <c r="B264" s="33"/>
       <c r="C264" s="33"/>
@@ -7353,7 +7353,7 @@
       <c r="M264" s="41"/>
       <c r="N264" s="42"/>
     </row>
-    <row r="265" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="24"/>
       <c r="B265" s="24"/>
       <c r="C265" s="24"/>
@@ -7369,7 +7369,7 @@
       <c r="M265" s="30"/>
       <c r="N265" s="31"/>
     </row>
-    <row r="266" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="33"/>
       <c r="B266" s="33"/>
       <c r="C266" s="33"/>
@@ -7385,7 +7385,7 @@
       <c r="M266" s="41"/>
       <c r="N266" s="42"/>
     </row>
-    <row r="267" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="24"/>
       <c r="B267" s="24"/>
       <c r="C267" s="24"/>
@@ -7401,7 +7401,7 @@
       <c r="M267" s="30"/>
       <c r="N267" s="31"/>
     </row>
-    <row r="268" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="33"/>
       <c r="B268" s="33"/>
       <c r="C268" s="33"/>
@@ -7417,7 +7417,7 @@
       <c r="M268" s="41"/>
       <c r="N268" s="42"/>
     </row>
-    <row r="269" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="24"/>
       <c r="B269" s="24"/>
       <c r="C269" s="24"/>
@@ -7433,7 +7433,7 @@
       <c r="M269" s="30"/>
       <c r="N269" s="31"/>
     </row>
-    <row r="270" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="33"/>
       <c r="B270" s="33"/>
       <c r="C270" s="33"/>
@@ -7449,7 +7449,7 @@
       <c r="M270" s="41"/>
       <c r="N270" s="42"/>
     </row>
-    <row r="271" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="24"/>
       <c r="B271" s="24"/>
       <c r="C271" s="24"/>
@@ -7465,7 +7465,7 @@
       <c r="M271" s="30"/>
       <c r="N271" s="31"/>
     </row>
-    <row r="272" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="33"/>
       <c r="B272" s="33"/>
       <c r="C272" s="33"/>
@@ -7481,7 +7481,7 @@
       <c r="M272" s="41"/>
       <c r="N272" s="42"/>
     </row>
-    <row r="273" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="24"/>
       <c r="B273" s="24"/>
       <c r="C273" s="24"/>
@@ -7497,7 +7497,7 @@
       <c r="M273" s="30"/>
       <c r="N273" s="31"/>
     </row>
-    <row r="274" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="33"/>
       <c r="B274" s="33"/>
       <c r="C274" s="33"/>
@@ -7513,7 +7513,7 @@
       <c r="M274" s="41"/>
       <c r="N274" s="42"/>
     </row>
-    <row r="275" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="24"/>
       <c r="B275" s="24"/>
       <c r="C275" s="24"/>
@@ -7529,7 +7529,7 @@
       <c r="M275" s="30"/>
       <c r="N275" s="31"/>
     </row>
-    <row r="276" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="33"/>
       <c r="B276" s="33"/>
       <c r="C276" s="33"/>
@@ -7545,7 +7545,7 @@
       <c r="M276" s="41"/>
       <c r="N276" s="42"/>
     </row>
-    <row r="277" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="24"/>
       <c r="B277" s="24"/>
       <c r="C277" s="24"/>
@@ -7561,7 +7561,7 @@
       <c r="M277" s="30"/>
       <c r="N277" s="31"/>
     </row>
-    <row r="278" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="33"/>
       <c r="B278" s="33"/>
       <c r="C278" s="33"/>
@@ -7577,7 +7577,7 @@
       <c r="M278" s="41"/>
       <c r="N278" s="42"/>
     </row>
-    <row r="279" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="24"/>
       <c r="B279" s="24"/>
       <c r="C279" s="24"/>
@@ -7593,7 +7593,7 @@
       <c r="M279" s="30"/>
       <c r="N279" s="31"/>
     </row>
-    <row r="280" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="33"/>
       <c r="B280" s="33"/>
       <c r="C280" s="33"/>
@@ -7609,7 +7609,7 @@
       <c r="M280" s="41"/>
       <c r="N280" s="42"/>
     </row>
-    <row r="281" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="24"/>
       <c r="B281" s="24"/>
       <c r="C281" s="24"/>
@@ -7625,7 +7625,7 @@
       <c r="M281" s="30"/>
       <c r="N281" s="31"/>
     </row>
-    <row r="282" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="33"/>
       <c r="B282" s="33"/>
       <c r="C282" s="33"/>
@@ -7641,7 +7641,7 @@
       <c r="M282" s="41"/>
       <c r="N282" s="42"/>
     </row>
-    <row r="283" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="24"/>
       <c r="B283" s="24"/>
       <c r="C283" s="24"/>
@@ -7657,7 +7657,7 @@
       <c r="M283" s="30"/>
       <c r="N283" s="31"/>
     </row>
-    <row r="284" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="33"/>
       <c r="B284" s="33"/>
       <c r="C284" s="33"/>
@@ -7673,7 +7673,7 @@
       <c r="M284" s="41"/>
       <c r="N284" s="42"/>
     </row>
-    <row r="285" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="24"/>
       <c r="B285" s="24"/>
       <c r="C285" s="24"/>
@@ -7689,7 +7689,7 @@
       <c r="M285" s="30"/>
       <c r="N285" s="31"/>
     </row>
-    <row r="286" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="33"/>
       <c r="B286" s="33"/>
       <c r="C286" s="33"/>
@@ -7705,7 +7705,7 @@
       <c r="M286" s="41"/>
       <c r="N286" s="42"/>
     </row>
-    <row r="287" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="24"/>
       <c r="B287" s="24"/>
       <c r="C287" s="24"/>
@@ -7721,7 +7721,7 @@
       <c r="M287" s="30"/>
       <c r="N287" s="31"/>
     </row>
-    <row r="288" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="33"/>
       <c r="B288" s="33"/>
       <c r="C288" s="33"/>
@@ -7737,7 +7737,7 @@
       <c r="M288" s="41"/>
       <c r="N288" s="42"/>
     </row>
-    <row r="289" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="24"/>
       <c r="B289" s="24"/>
       <c r="C289" s="24"/>
@@ -7753,7 +7753,7 @@
       <c r="M289" s="30"/>
       <c r="N289" s="31"/>
     </row>
-    <row r="290" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="33"/>
       <c r="B290" s="33"/>
       <c r="C290" s="33"/>
@@ -7769,7 +7769,7 @@
       <c r="M290" s="41"/>
       <c r="N290" s="42"/>
     </row>
-    <row r="291" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="24"/>
       <c r="B291" s="24"/>
       <c r="C291" s="24"/>
@@ -7785,7 +7785,7 @@
       <c r="M291" s="30"/>
       <c r="N291" s="31"/>
     </row>
-    <row r="292" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="33"/>
       <c r="B292" s="33"/>
       <c r="C292" s="33"/>
@@ -7801,7 +7801,7 @@
       <c r="M292" s="41"/>
       <c r="N292" s="42"/>
     </row>
-    <row r="293" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="24"/>
       <c r="B293" s="24"/>
       <c r="C293" s="24"/>
@@ -7817,7 +7817,7 @@
       <c r="M293" s="30"/>
       <c r="N293" s="31"/>
     </row>
-    <row r="294" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="33"/>
       <c r="B294" s="33"/>
       <c r="C294" s="33"/>
@@ -7833,7 +7833,7 @@
       <c r="M294" s="41"/>
       <c r="N294" s="42"/>
     </row>
-    <row r="295" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="24"/>
       <c r="B295" s="24"/>
       <c r="C295" s="24"/>
@@ -7849,7 +7849,7 @@
       <c r="M295" s="30"/>
       <c r="N295" s="31"/>
     </row>
-    <row r="296" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="33"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
@@ -7865,7 +7865,7 @@
       <c r="M296" s="41"/>
       <c r="N296" s="42"/>
     </row>
-    <row r="297" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="24"/>
       <c r="B297" s="24"/>
       <c r="C297" s="24"/>
@@ -7881,7 +7881,7 @@
       <c r="M297" s="30"/>
       <c r="N297" s="31"/>
     </row>
-    <row r="298" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="33"/>
       <c r="B298" s="33"/>
       <c r="C298" s="33"/>
@@ -7897,7 +7897,7 @@
       <c r="M298" s="41"/>
       <c r="N298" s="42"/>
     </row>
-    <row r="299" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="24"/>
       <c r="B299" s="24"/>
       <c r="C299" s="24"/>
@@ -7913,7 +7913,7 @@
       <c r="M299" s="30"/>
       <c r="N299" s="31"/>
     </row>
-    <row r="300" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="33"/>
       <c r="B300" s="33"/>
       <c r="C300" s="33"/>
@@ -7929,7 +7929,7 @@
       <c r="M300" s="41"/>
       <c r="N300" s="42"/>
     </row>
-    <row r="301" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="24"/>
       <c r="B301" s="24"/>
       <c r="C301" s="24"/>
@@ -7945,7 +7945,7 @@
       <c r="M301" s="30"/>
       <c r="N301" s="31"/>
     </row>
-    <row r="302" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="33"/>
       <c r="B302" s="33"/>
       <c r="C302" s="33"/>
@@ -7961,7 +7961,7 @@
       <c r="M302" s="41"/>
       <c r="N302" s="42"/>
     </row>
-    <row r="303" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="24"/>
       <c r="B303" s="24"/>
       <c r="C303" s="24"/>
@@ -7977,7 +7977,7 @@
       <c r="M303" s="30"/>
       <c r="N303" s="31"/>
     </row>
-    <row r="304" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="33"/>
       <c r="B304" s="33"/>
       <c r="C304" s="33"/>
@@ -7993,7 +7993,7 @@
       <c r="M304" s="41"/>
       <c r="N304" s="42"/>
     </row>
-    <row r="305" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="24"/>
       <c r="B305" s="24"/>
       <c r="C305" s="24"/>
@@ -8009,7 +8009,7 @@
       <c r="M305" s="30"/>
       <c r="N305" s="31"/>
     </row>
-    <row r="306" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="33"/>
       <c r="B306" s="33"/>
       <c r="C306" s="33"/>
@@ -8025,7 +8025,7 @@
       <c r="M306" s="41"/>
       <c r="N306" s="42"/>
     </row>
-    <row r="307" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="24"/>
       <c r="B307" s="24"/>
       <c r="C307" s="24"/>
@@ -8041,7 +8041,7 @@
       <c r="M307" s="30"/>
       <c r="N307" s="31"/>
     </row>
-    <row r="308" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="33"/>
       <c r="B308" s="33"/>
       <c r="C308" s="33"/>
@@ -8057,7 +8057,7 @@
       <c r="M308" s="41"/>
       <c r="N308" s="42"/>
     </row>
-    <row r="309" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="24"/>
       <c r="B309" s="24"/>
       <c r="C309" s="24"/>
@@ -8073,7 +8073,7 @@
       <c r="M309" s="30"/>
       <c r="N309" s="31"/>
     </row>
-    <row r="310" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="33"/>
       <c r="B310" s="33"/>
       <c r="C310" s="33"/>
@@ -8089,7 +8089,7 @@
       <c r="M310" s="41"/>
       <c r="N310" s="42"/>
     </row>
-    <row r="311" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="24"/>
       <c r="B311" s="24"/>
       <c r="C311" s="24"/>
@@ -8105,7 +8105,7 @@
       <c r="M311" s="30"/>
       <c r="N311" s="31"/>
     </row>
-    <row r="312" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="33"/>
       <c r="B312" s="33"/>
       <c r="C312" s="33"/>
@@ -8121,7 +8121,7 @@
       <c r="M312" s="41"/>
       <c r="N312" s="42"/>
     </row>
-    <row r="313" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="24"/>
       <c r="B313" s="24"/>
       <c r="C313" s="24"/>
@@ -8137,7 +8137,7 @@
       <c r="M313" s="30"/>
       <c r="N313" s="31"/>
     </row>
-    <row r="314" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="33"/>
       <c r="B314" s="33"/>
       <c r="C314" s="33"/>
@@ -8153,7 +8153,7 @@
       <c r="M314" s="41"/>
       <c r="N314" s="42"/>
     </row>
-    <row r="315" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="24"/>
       <c r="B315" s="24"/>
       <c r="C315" s="24"/>
@@ -8169,7 +8169,7 @@
       <c r="M315" s="30"/>
       <c r="N315" s="31"/>
     </row>
-    <row r="316" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="33"/>
       <c r="B316" s="33"/>
       <c r="C316" s="33"/>
@@ -8185,7 +8185,7 @@
       <c r="M316" s="41"/>
       <c r="N316" s="42"/>
     </row>
-    <row r="317" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="24"/>
       <c r="B317" s="24"/>
       <c r="C317" s="24"/>
@@ -8201,7 +8201,7 @@
       <c r="M317" s="30"/>
       <c r="N317" s="31"/>
     </row>
-    <row r="318" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="33"/>
       <c r="B318" s="33"/>
       <c r="C318" s="33"/>
@@ -8217,7 +8217,7 @@
       <c r="M318" s="41"/>
       <c r="N318" s="42"/>
     </row>
-    <row r="319" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="24"/>
       <c r="B319" s="24"/>
       <c r="C319" s="24"/>
@@ -8233,7 +8233,7 @@
       <c r="M319" s="30"/>
       <c r="N319" s="31"/>
     </row>
-    <row r="320" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="33"/>
       <c r="B320" s="33"/>
       <c r="C320" s="33"/>
@@ -8249,7 +8249,7 @@
       <c r="M320" s="41"/>
       <c r="N320" s="42"/>
     </row>
-    <row r="321" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="24"/>
       <c r="B321" s="24"/>
       <c r="C321" s="24"/>
@@ -8265,7 +8265,7 @@
       <c r="M321" s="30"/>
       <c r="N321" s="31"/>
     </row>
-    <row r="322" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="33"/>
       <c r="B322" s="33"/>
       <c r="C322" s="33"/>
@@ -8281,7 +8281,7 @@
       <c r="M322" s="41"/>
       <c r="N322" s="42"/>
     </row>
-    <row r="323" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="24"/>
       <c r="B323" s="24"/>
       <c r="C323" s="24"/>
@@ -8297,7 +8297,7 @@
       <c r="M323" s="30"/>
       <c r="N323" s="31"/>
     </row>
-    <row r="324" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="33"/>
       <c r="B324" s="33"/>
       <c r="C324" s="33"/>
@@ -8313,7 +8313,7 @@
       <c r="M324" s="41"/>
       <c r="N324" s="42"/>
     </row>
-    <row r="325" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="24"/>
       <c r="B325" s="24"/>
       <c r="C325" s="24"/>
@@ -8329,7 +8329,7 @@
       <c r="M325" s="30"/>
       <c r="N325" s="31"/>
     </row>
-    <row r="326" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="33"/>
       <c r="B326" s="33"/>
       <c r="C326" s="33"/>
@@ -8345,7 +8345,7 @@
       <c r="M326" s="41"/>
       <c r="N326" s="42"/>
     </row>
-    <row r="327" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="24"/>
       <c r="B327" s="24"/>
       <c r="C327" s="24"/>
@@ -8361,7 +8361,7 @@
       <c r="M327" s="30"/>
       <c r="N327" s="31"/>
     </row>
-    <row r="328" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="33"/>
       <c r="B328" s="33"/>
       <c r="C328" s="33"/>
@@ -8377,7 +8377,7 @@
       <c r="M328" s="41"/>
       <c r="N328" s="42"/>
     </row>
-    <row r="329" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="24"/>
       <c r="B329" s="24"/>
       <c r="C329" s="24"/>
@@ -8393,7 +8393,7 @@
       <c r="M329" s="30"/>
       <c r="N329" s="31"/>
     </row>
-    <row r="330" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="33"/>
       <c r="B330" s="33"/>
       <c r="C330" s="33"/>
@@ -8409,7 +8409,7 @@
       <c r="M330" s="41"/>
       <c r="N330" s="42"/>
     </row>
-    <row r="331" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="24"/>
       <c r="B331" s="24"/>
       <c r="C331" s="24"/>
@@ -8425,7 +8425,7 @@
       <c r="M331" s="30"/>
       <c r="N331" s="31"/>
     </row>
-    <row r="332" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="33"/>
       <c r="B332" s="33"/>
       <c r="C332" s="33"/>
@@ -8441,7 +8441,7 @@
       <c r="M332" s="41"/>
       <c r="N332" s="42"/>
     </row>
-    <row r="333" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="24"/>
       <c r="B333" s="24"/>
       <c r="C333" s="24"/>
@@ -8457,7 +8457,7 @@
       <c r="M333" s="30"/>
       <c r="N333" s="31"/>
     </row>
-    <row r="334" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="33"/>
       <c r="B334" s="33"/>
       <c r="C334" s="33"/>
@@ -8473,7 +8473,7 @@
       <c r="M334" s="41"/>
       <c r="N334" s="42"/>
     </row>
-    <row r="335" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="24"/>
       <c r="B335" s="24"/>
       <c r="C335" s="24"/>
@@ -8489,7 +8489,7 @@
       <c r="M335" s="30"/>
       <c r="N335" s="31"/>
     </row>
-    <row r="336" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="33"/>
       <c r="B336" s="33"/>
       <c r="C336" s="33"/>
@@ -8505,7 +8505,7 @@
       <c r="M336" s="41"/>
       <c r="N336" s="42"/>
     </row>
-    <row r="337" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="24"/>
       <c r="B337" s="24"/>
       <c r="C337" s="24"/>
@@ -8521,7 +8521,7 @@
       <c r="M337" s="30"/>
       <c r="N337" s="31"/>
     </row>
-    <row r="338" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="33"/>
       <c r="B338" s="33"/>
       <c r="C338" s="33"/>
@@ -8537,7 +8537,7 @@
       <c r="M338" s="41"/>
       <c r="N338" s="42"/>
     </row>
-    <row r="339" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="24"/>
       <c r="B339" s="24"/>
       <c r="C339" s="24"/>
@@ -8553,7 +8553,7 @@
       <c r="M339" s="30"/>
       <c r="N339" s="31"/>
     </row>
-    <row r="340" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="33"/>
       <c r="B340" s="33"/>
       <c r="C340" s="33"/>
@@ -8569,7 +8569,7 @@
       <c r="M340" s="41"/>
       <c r="N340" s="42"/>
     </row>
-    <row r="341" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="24"/>
       <c r="B341" s="24"/>
       <c r="C341" s="24"/>
@@ -8585,7 +8585,7 @@
       <c r="M341" s="30"/>
       <c r="N341" s="31"/>
     </row>
-    <row r="342" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="33"/>
       <c r="B342" s="33"/>
       <c r="C342" s="33"/>
@@ -8601,7 +8601,7 @@
       <c r="M342" s="41"/>
       <c r="N342" s="42"/>
     </row>
-    <row r="343" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="24"/>
       <c r="B343" s="24"/>
       <c r="C343" s="24"/>
@@ -8617,7 +8617,7 @@
       <c r="M343" s="30"/>
       <c r="N343" s="31"/>
     </row>
-    <row r="344" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="33"/>
       <c r="B344" s="33"/>
       <c r="C344" s="33"/>
@@ -8633,7 +8633,7 @@
       <c r="M344" s="41"/>
       <c r="N344" s="42"/>
     </row>
-    <row r="345" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="24"/>
       <c r="B345" s="24"/>
       <c r="C345" s="24"/>
@@ -8649,7 +8649,7 @@
       <c r="M345" s="30"/>
       <c r="N345" s="31"/>
     </row>
-    <row r="346" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="33"/>
       <c r="B346" s="33"/>
       <c r="C346" s="33"/>
@@ -8665,7 +8665,7 @@
       <c r="M346" s="41"/>
       <c r="N346" s="42"/>
     </row>
-    <row r="347" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="24"/>
       <c r="B347" s="24"/>
       <c r="C347" s="24"/>
@@ -8681,7 +8681,7 @@
       <c r="M347" s="30"/>
       <c r="N347" s="31"/>
     </row>
-    <row r="348" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="33"/>
       <c r="B348" s="33"/>
       <c r="C348" s="33"/>
@@ -8697,7 +8697,7 @@
       <c r="M348" s="41"/>
       <c r="N348" s="42"/>
     </row>
-    <row r="349" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="24"/>
       <c r="B349" s="24"/>
       <c r="C349" s="24"/>
@@ -8713,7 +8713,7 @@
       <c r="M349" s="30"/>
       <c r="N349" s="31"/>
     </row>
-    <row r="350" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="33"/>
       <c r="B350" s="33"/>
       <c r="C350" s="33"/>
@@ -8729,7 +8729,7 @@
       <c r="M350" s="41"/>
       <c r="N350" s="42"/>
     </row>
-    <row r="351" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="24"/>
       <c r="B351" s="24"/>
       <c r="C351" s="24"/>
@@ -8745,7 +8745,7 @@
       <c r="M351" s="30"/>
       <c r="N351" s="31"/>
     </row>
-    <row r="352" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="33"/>
       <c r="B352" s="33"/>
       <c r="C352" s="33"/>
@@ -8761,7 +8761,7 @@
       <c r="M352" s="41"/>
       <c r="N352" s="42"/>
     </row>
-    <row r="353" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="24"/>
       <c r="B353" s="24"/>
       <c r="C353" s="24"/>
@@ -8777,7 +8777,7 @@
       <c r="M353" s="30"/>
       <c r="N353" s="31"/>
     </row>
-    <row r="354" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="33"/>
       <c r="B354" s="33"/>
       <c r="C354" s="33"/>
@@ -8793,7 +8793,7 @@
       <c r="M354" s="41"/>
       <c r="N354" s="42"/>
     </row>
-    <row r="355" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="24"/>
       <c r="B355" s="24"/>
       <c r="C355" s="24"/>
@@ -8809,7 +8809,7 @@
       <c r="M355" s="30"/>
       <c r="N355" s="31"/>
     </row>
-    <row r="356" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="33"/>
       <c r="B356" s="33"/>
       <c r="C356" s="33"/>
@@ -8825,7 +8825,7 @@
       <c r="M356" s="41"/>
       <c r="N356" s="42"/>
     </row>
-    <row r="357" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="24"/>
       <c r="B357" s="24"/>
       <c r="C357" s="24"/>
@@ -8841,7 +8841,7 @@
       <c r="M357" s="30"/>
       <c r="N357" s="31"/>
     </row>
-    <row r="358" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="33"/>
       <c r="B358" s="33"/>
       <c r="C358" s="33"/>
@@ -8857,7 +8857,7 @@
       <c r="M358" s="41"/>
       <c r="N358" s="42"/>
     </row>
-    <row r="359" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="24"/>
       <c r="B359" s="24"/>
       <c r="C359" s="24"/>
@@ -8873,7 +8873,7 @@
       <c r="M359" s="30"/>
       <c r="N359" s="31"/>
     </row>
-    <row r="360" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="33"/>
       <c r="B360" s="33"/>
       <c r="C360" s="33"/>
@@ -8889,7 +8889,7 @@
       <c r="M360" s="41"/>
       <c r="N360" s="42"/>
     </row>
-    <row r="361" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="24"/>
       <c r="B361" s="24"/>
       <c r="C361" s="24"/>
@@ -8905,7 +8905,7 @@
       <c r="M361" s="30"/>
       <c r="N361" s="31"/>
     </row>
-    <row r="362" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="33"/>
       <c r="B362" s="33"/>
       <c r="C362" s="33"/>
@@ -8921,7 +8921,7 @@
       <c r="M362" s="41"/>
       <c r="N362" s="42"/>
     </row>
-    <row r="363" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="24"/>
       <c r="B363" s="24"/>
       <c r="C363" s="24"/>
@@ -8937,7 +8937,7 @@
       <c r="M363" s="30"/>
       <c r="N363" s="31"/>
     </row>
-    <row r="364" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="33"/>
       <c r="B364" s="33"/>
       <c r="C364" s="33"/>
@@ -8953,7 +8953,7 @@
       <c r="M364" s="41"/>
       <c r="N364" s="42"/>
     </row>
-    <row r="365" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="24"/>
       <c r="B365" s="24"/>
       <c r="C365" s="24"/>
@@ -8969,7 +8969,7 @@
       <c r="M365" s="30"/>
       <c r="N365" s="31"/>
     </row>
-    <row r="366" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="33"/>
       <c r="B366" s="33"/>
       <c r="C366" s="33"/>
@@ -8985,7 +8985,7 @@
       <c r="M366" s="41"/>
       <c r="N366" s="42"/>
     </row>
-    <row r="367" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="24"/>
       <c r="B367" s="24"/>
       <c r="C367" s="24"/>
@@ -9001,7 +9001,7 @@
       <c r="M367" s="30"/>
       <c r="N367" s="31"/>
     </row>
-    <row r="368" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="33"/>
       <c r="B368" s="33"/>
       <c r="C368" s="33"/>
@@ -9017,7 +9017,7 @@
       <c r="M368" s="41"/>
       <c r="N368" s="42"/>
     </row>
-    <row r="369" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="24"/>
       <c r="B369" s="24"/>
       <c r="C369" s="24"/>
@@ -9033,7 +9033,7 @@
       <c r="M369" s="30"/>
       <c r="N369" s="31"/>
     </row>
-    <row r="370" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="33"/>
       <c r="B370" s="33"/>
       <c r="C370" s="33"/>
@@ -9049,7 +9049,7 @@
       <c r="M370" s="41"/>
       <c r="N370" s="42"/>
     </row>
-    <row r="371" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="24"/>
       <c r="B371" s="24"/>
       <c r="C371" s="24"/>
@@ -9065,7 +9065,7 @@
       <c r="M371" s="30"/>
       <c r="N371" s="31"/>
     </row>
-    <row r="372" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="33"/>
       <c r="B372" s="33"/>
       <c r="C372" s="33"/>
@@ -9081,7 +9081,7 @@
       <c r="M372" s="41"/>
       <c r="N372" s="42"/>
     </row>
-    <row r="373" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="24"/>
       <c r="B373" s="24"/>
       <c r="C373" s="24"/>
@@ -9097,7 +9097,7 @@
       <c r="M373" s="30"/>
       <c r="N373" s="31"/>
     </row>
-    <row r="374" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="46"/>
       <c r="B374" s="46"/>
       <c r="C374" s="46"/>
@@ -9113,9 +9113,9 @@
       <c r="M374" s="47"/>
       <c r="N374" s="47"/>
     </row>
-    <row r="376" spans="1:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="1:14" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="1:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:14" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A3:N3"/>
@@ -9143,15 +9143,15 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="33" width="8.109375" style="1" customWidth="1"/>
-    <col min="34" max="993" width="9.6640625" style="1" customWidth="1"/>
-    <col min="994" max="994" width="9.6640625" customWidth="1"/>
+    <col min="1" max="33" width="6.7109375" style="1" customWidth="1"/>
+    <col min="34" max="993" width="9.7109375" style="1" customWidth="1"/>
+    <col min="994" max="994" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:993" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
+    <row r="1" spans="1:993" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
       <c r="AJZ1"/>
       <c r="AKA1"/>
       <c r="AKB1"/>
@@ -9185,7 +9185,7 @@
       <c r="ALD1"/>
       <c r="ALE1"/>
     </row>
-    <row r="2" spans="1:993" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:993" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJZ2"/>
       <c r="AKA2"/>
       <c r="AKB2"/>
@@ -9219,142 +9219,142 @@
       <c r="ALD2"/>
       <c r="ALE2"/>
     </row>
-    <row r="3" spans="1:993" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="59"/>
-    </row>
-    <row r="4" spans="1:993" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+    <row r="3" spans="1:993" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="69"/>
+    </row>
+    <row r="4" spans="1:993" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66" t="s">
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-    </row>
-    <row r="5" spans="1:993" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60" t="s">
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+    </row>
+    <row r="5" spans="1:993" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="55" t="s">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="61" t="s">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="62" t="s">
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="55" t="s">
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="61" t="s">
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="62" t="s">
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="55" t="s">
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="62" t="s">
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-    </row>
-    <row r="6" spans="1:993" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+    </row>
+    <row r="6" spans="1:993" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -9455,58 +9455,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:993" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="73" t="s">
+    <row r="7" spans="1:993" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="72" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="67" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70" t="s">
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="67" t="s">
+      <c r="Q7" s="61"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="70" t="s">
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="72" t="s">
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-    </row>
-    <row r="8" spans="1:993" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+    </row>
+    <row r="8" spans="1:993" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -9541,7 +9541,7 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="20"/>
     </row>
-    <row r="9" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="25"/>
       <c r="C9" s="24"/>
@@ -9576,7 +9576,7 @@
       <c r="AF9" s="25"/>
       <c r="AG9" s="29"/>
     </row>
-    <row r="10" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="33"/>
@@ -9611,7 +9611,7 @@
       <c r="AF10" s="34"/>
       <c r="AG10" s="38"/>
     </row>
-    <row r="11" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="24"/>
@@ -9646,7 +9646,7 @@
       <c r="AF11" s="25"/>
       <c r="AG11" s="29"/>
     </row>
-    <row r="12" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
@@ -9681,7 +9681,7 @@
       <c r="AF12" s="34"/>
       <c r="AG12" s="38"/>
     </row>
-    <row r="13" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
@@ -9716,7 +9716,7 @@
       <c r="AF13" s="25"/>
       <c r="AG13" s="29"/>
     </row>
-    <row r="14" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -9751,7 +9751,7 @@
       <c r="AF14" s="34"/>
       <c r="AG14" s="38"/>
     </row>
-    <row r="15" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
@@ -9786,7 +9786,7 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="29"/>
     </row>
-    <row r="16" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="33"/>
@@ -9821,7 +9821,7 @@
       <c r="AF16" s="34"/>
       <c r="AG16" s="38"/>
     </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
@@ -9856,7 +9856,7 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="29"/>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="33"/>
@@ -9891,7 +9891,7 @@
       <c r="AF18" s="34"/>
       <c r="AG18" s="38"/>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="25"/>
       <c r="C19" s="24"/>
@@ -9926,7 +9926,7 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="29"/>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="33"/>
@@ -9961,7 +9961,7 @@
       <c r="AF20" s="34"/>
       <c r="AG20" s="38"/>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="24"/>
@@ -9996,7 +9996,7 @@
       <c r="AF21" s="25"/>
       <c r="AG21" s="29"/>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="33"/>
@@ -10031,7 +10031,7 @@
       <c r="AF22" s="34"/>
       <c r="AG22" s="38"/>
     </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="25"/>
       <c r="C23" s="24"/>
@@ -10066,7 +10066,7 @@
       <c r="AF23" s="25"/>
       <c r="AG23" s="29"/>
     </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="33"/>
@@ -10101,7 +10101,7 @@
       <c r="AF24" s="34"/>
       <c r="AG24" s="38"/>
     </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="25"/>
       <c r="C25" s="24"/>
@@ -10136,7 +10136,7 @@
       <c r="AF25" s="25"/>
       <c r="AG25" s="29"/>
     </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="33"/>
@@ -10171,7 +10171,7 @@
       <c r="AF26" s="34"/>
       <c r="AG26" s="38"/>
     </row>
-    <row r="27" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="24"/>
@@ -10206,7 +10206,7 @@
       <c r="AF27" s="25"/>
       <c r="AG27" s="29"/>
     </row>
-    <row r="28" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="33"/>
@@ -10241,7 +10241,7 @@
       <c r="AF28" s="34"/>
       <c r="AG28" s="38"/>
     </row>
-    <row r="29" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="25"/>
       <c r="C29" s="24"/>
@@ -10276,7 +10276,7 @@
       <c r="AF29" s="25"/>
       <c r="AG29" s="29"/>
     </row>
-    <row r="30" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -10311,7 +10311,7 @@
       <c r="AF30" s="34"/>
       <c r="AG30" s="38"/>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="25"/>
       <c r="C31" s="24"/>
@@ -10346,7 +10346,7 @@
       <c r="AF31" s="25"/>
       <c r="AG31" s="29"/>
     </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="33"/>
@@ -10381,7 +10381,7 @@
       <c r="AF32" s="34"/>
       <c r="AG32" s="38"/>
     </row>
-    <row r="33" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="25"/>
       <c r="C33" s="24"/>
@@ -10416,7 +10416,7 @@
       <c r="AF33" s="25"/>
       <c r="AG33" s="29"/>
     </row>
-    <row r="34" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="33"/>
@@ -10451,7 +10451,7 @@
       <c r="AF34" s="34"/>
       <c r="AG34" s="38"/>
     </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="25"/>
       <c r="C35" s="24"/>
@@ -10486,7 +10486,7 @@
       <c r="AF35" s="25"/>
       <c r="AG35" s="29"/>
     </row>
-    <row r="36" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
       <c r="C36" s="33"/>
@@ -10521,7 +10521,7 @@
       <c r="AF36" s="34"/>
       <c r="AG36" s="38"/>
     </row>
-    <row r="37" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="25"/>
       <c r="C37" s="24"/>
@@ -10556,7 +10556,7 @@
       <c r="AF37" s="25"/>
       <c r="AG37" s="29"/>
     </row>
-    <row r="38" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
       <c r="C38" s="33"/>
@@ -10591,7 +10591,7 @@
       <c r="AF38" s="34"/>
       <c r="AG38" s="38"/>
     </row>
-    <row r="39" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="25"/>
       <c r="C39" s="24"/>
@@ -10626,7 +10626,7 @@
       <c r="AF39" s="25"/>
       <c r="AG39" s="29"/>
     </row>
-    <row r="40" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
       <c r="C40" s="33"/>
@@ -10661,7 +10661,7 @@
       <c r="AF40" s="34"/>
       <c r="AG40" s="38"/>
     </row>
-    <row r="41" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
       <c r="C41" s="24"/>
@@ -10696,7 +10696,7 @@
       <c r="AF41" s="25"/>
       <c r="AG41" s="29"/>
     </row>
-    <row r="42" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
       <c r="C42" s="33"/>
@@ -10731,7 +10731,7 @@
       <c r="AF42" s="34"/>
       <c r="AG42" s="38"/>
     </row>
-    <row r="43" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="25"/>
       <c r="C43" s="24"/>
@@ -10766,7 +10766,7 @@
       <c r="AF43" s="25"/>
       <c r="AG43" s="29"/>
     </row>
-    <row r="44" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="34"/>
       <c r="C44" s="33"/>
@@ -10801,7 +10801,7 @@
       <c r="AF44" s="34"/>
       <c r="AG44" s="38"/>
     </row>
-    <row r="45" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24"/>
       <c r="B45" s="25"/>
       <c r="C45" s="24"/>
@@ -10836,7 +10836,7 @@
       <c r="AF45" s="25"/>
       <c r="AG45" s="29"/>
     </row>
-    <row r="46" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
       <c r="C46" s="33"/>
@@ -10871,7 +10871,7 @@
       <c r="AF46" s="34"/>
       <c r="AG46" s="38"/>
     </row>
-    <row r="47" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24"/>
       <c r="B47" s="25"/>
       <c r="C47" s="24"/>
@@ -10906,7 +10906,7 @@
       <c r="AF47" s="25"/>
       <c r="AG47" s="29"/>
     </row>
-    <row r="48" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
       <c r="C48" s="33"/>
@@ -10941,7 +10941,7 @@
       <c r="AF48" s="34"/>
       <c r="AG48" s="38"/>
     </row>
-    <row r="49" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="25"/>
       <c r="C49" s="24"/>
@@ -10976,7 +10976,7 @@
       <c r="AF49" s="25"/>
       <c r="AG49" s="29"/>
     </row>
-    <row r="50" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
       <c r="C50" s="33"/>
@@ -11011,7 +11011,7 @@
       <c r="AF50" s="34"/>
       <c r="AG50" s="38"/>
     </row>
-    <row r="51" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="25"/>
       <c r="C51" s="24"/>
@@ -11046,7 +11046,7 @@
       <c r="AF51" s="25"/>
       <c r="AG51" s="29"/>
     </row>
-    <row r="52" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="33"/>
@@ -11081,7 +11081,7 @@
       <c r="AF52" s="34"/>
       <c r="AG52" s="38"/>
     </row>
-    <row r="53" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53" s="25"/>
       <c r="C53" s="24"/>
@@ -11116,7 +11116,7 @@
       <c r="AF53" s="25"/>
       <c r="AG53" s="29"/>
     </row>
-    <row r="54" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
       <c r="C54" s="33"/>
@@ -11151,7 +11151,7 @@
       <c r="AF54" s="34"/>
       <c r="AG54" s="38"/>
     </row>
-    <row r="55" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24"/>
       <c r="B55" s="25"/>
       <c r="C55" s="24"/>
@@ -11186,7 +11186,7 @@
       <c r="AF55" s="25"/>
       <c r="AG55" s="29"/>
     </row>
-    <row r="56" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="C56" s="33"/>
@@ -11221,7 +11221,7 @@
       <c r="AF56" s="34"/>
       <c r="AG56" s="38"/>
     </row>
-    <row r="57" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24"/>
       <c r="B57" s="25"/>
       <c r="C57" s="24"/>
@@ -11256,7 +11256,7 @@
       <c r="AF57" s="25"/>
       <c r="AG57" s="29"/>
     </row>
-    <row r="58" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
       <c r="C58" s="33"/>
@@ -11291,7 +11291,7 @@
       <c r="AF58" s="34"/>
       <c r="AG58" s="38"/>
     </row>
-    <row r="59" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
       <c r="B59" s="25"/>
       <c r="C59" s="24"/>
@@ -11326,7 +11326,7 @@
       <c r="AF59" s="25"/>
       <c r="AG59" s="29"/>
     </row>
-    <row r="60" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
       <c r="C60" s="33"/>
@@ -11361,7 +11361,7 @@
       <c r="AF60" s="34"/>
       <c r="AG60" s="38"/>
     </row>
-    <row r="61" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="24"/>
       <c r="B61" s="25"/>
       <c r="C61" s="24"/>
@@ -11396,7 +11396,7 @@
       <c r="AF61" s="25"/>
       <c r="AG61" s="29"/>
     </row>
-    <row r="62" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="34"/>
       <c r="C62" s="33"/>
@@ -11431,7 +11431,7 @@
       <c r="AF62" s="34"/>
       <c r="AG62" s="38"/>
     </row>
-    <row r="63" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24"/>
       <c r="B63" s="25"/>
       <c r="C63" s="24"/>
@@ -11466,7 +11466,7 @@
       <c r="AF63" s="25"/>
       <c r="AG63" s="29"/>
     </row>
-    <row r="64" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="34"/>
       <c r="C64" s="33"/>
@@ -11501,7 +11501,7 @@
       <c r="AF64" s="34"/>
       <c r="AG64" s="38"/>
     </row>
-    <row r="65" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24"/>
       <c r="B65" s="25"/>
       <c r="C65" s="24"/>
@@ -11536,7 +11536,7 @@
       <c r="AF65" s="25"/>
       <c r="AG65" s="29"/>
     </row>
-    <row r="66" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
       <c r="C66" s="33"/>
@@ -11571,7 +11571,7 @@
       <c r="AF66" s="34"/>
       <c r="AG66" s="38"/>
     </row>
-    <row r="67" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24"/>
       <c r="B67" s="25"/>
       <c r="C67" s="24"/>
@@ -11606,7 +11606,7 @@
       <c r="AF67" s="25"/>
       <c r="AG67" s="29"/>
     </row>
-    <row r="68" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
       <c r="C68" s="33"/>
@@ -11641,7 +11641,7 @@
       <c r="AF68" s="34"/>
       <c r="AG68" s="38"/>
     </row>
-    <row r="69" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24"/>
       <c r="B69" s="25"/>
       <c r="C69" s="24"/>
@@ -11676,7 +11676,7 @@
       <c r="AF69" s="25"/>
       <c r="AG69" s="29"/>
     </row>
-    <row r="70" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
       <c r="C70" s="33"/>
@@ -11711,7 +11711,7 @@
       <c r="AF70" s="34"/>
       <c r="AG70" s="38"/>
     </row>
-    <row r="71" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
       <c r="B71" s="25"/>
       <c r="C71" s="24"/>
@@ -11746,7 +11746,7 @@
       <c r="AF71" s="25"/>
       <c r="AG71" s="29"/>
     </row>
-    <row r="72" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
       <c r="C72" s="33"/>
@@ -11781,7 +11781,7 @@
       <c r="AF72" s="34"/>
       <c r="AG72" s="38"/>
     </row>
-    <row r="73" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24"/>
       <c r="B73" s="25"/>
       <c r="C73" s="24"/>
@@ -11816,7 +11816,7 @@
       <c r="AF73" s="25"/>
       <c r="AG73" s="29"/>
     </row>
-    <row r="74" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
       <c r="C74" s="33"/>
@@ -11851,7 +11851,7 @@
       <c r="AF74" s="34"/>
       <c r="AG74" s="38"/>
     </row>
-    <row r="75" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24"/>
       <c r="B75" s="25"/>
       <c r="C75" s="24"/>
@@ -11886,7 +11886,7 @@
       <c r="AF75" s="25"/>
       <c r="AG75" s="29"/>
     </row>
-    <row r="76" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
       <c r="C76" s="33"/>
@@ -11921,7 +11921,7 @@
       <c r="AF76" s="34"/>
       <c r="AG76" s="38"/>
     </row>
-    <row r="77" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24"/>
       <c r="B77" s="25"/>
       <c r="C77" s="24"/>
@@ -11956,7 +11956,7 @@
       <c r="AF77" s="25"/>
       <c r="AG77" s="29"/>
     </row>
-    <row r="78" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
       <c r="C78" s="33"/>
@@ -11991,7 +11991,7 @@
       <c r="AF78" s="34"/>
       <c r="AG78" s="38"/>
     </row>
-    <row r="79" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24"/>
       <c r="B79" s="25"/>
       <c r="C79" s="24"/>
@@ -12026,7 +12026,7 @@
       <c r="AF79" s="25"/>
       <c r="AG79" s="29"/>
     </row>
-    <row r="80" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
       <c r="C80" s="33"/>
@@ -12061,7 +12061,7 @@
       <c r="AF80" s="34"/>
       <c r="AG80" s="38"/>
     </row>
-    <row r="81" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24"/>
       <c r="B81" s="25"/>
       <c r="C81" s="24"/>
@@ -12096,7 +12096,7 @@
       <c r="AF81" s="25"/>
       <c r="AG81" s="29"/>
     </row>
-    <row r="82" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
       <c r="C82" s="33"/>
@@ -12131,7 +12131,7 @@
       <c r="AF82" s="34"/>
       <c r="AG82" s="38"/>
     </row>
-    <row r="83" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24"/>
       <c r="B83" s="25"/>
       <c r="C83" s="24"/>
@@ -12166,7 +12166,7 @@
       <c r="AF83" s="25"/>
       <c r="AG83" s="29"/>
     </row>
-    <row r="84" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
       <c r="C84" s="33"/>
@@ -12201,7 +12201,7 @@
       <c r="AF84" s="34"/>
       <c r="AG84" s="38"/>
     </row>
-    <row r="85" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24"/>
       <c r="B85" s="25"/>
       <c r="C85" s="24"/>
@@ -12236,7 +12236,7 @@
       <c r="AF85" s="25"/>
       <c r="AG85" s="29"/>
     </row>
-    <row r="86" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="33"/>
       <c r="B86" s="34"/>
       <c r="C86" s="33"/>
@@ -12271,7 +12271,7 @@
       <c r="AF86" s="34"/>
       <c r="AG86" s="38"/>
     </row>
-    <row r="87" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24"/>
       <c r="B87" s="25"/>
       <c r="C87" s="24"/>
@@ -12306,7 +12306,7 @@
       <c r="AF87" s="25"/>
       <c r="AG87" s="29"/>
     </row>
-    <row r="88" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="34"/>
       <c r="C88" s="33"/>
@@ -12341,7 +12341,7 @@
       <c r="AF88" s="34"/>
       <c r="AG88" s="38"/>
     </row>
-    <row r="89" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24"/>
       <c r="B89" s="25"/>
       <c r="C89" s="24"/>
@@ -12376,7 +12376,7 @@
       <c r="AF89" s="25"/>
       <c r="AG89" s="29"/>
     </row>
-    <row r="90" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="34"/>
       <c r="C90" s="33"/>
@@ -12411,7 +12411,7 @@
       <c r="AF90" s="34"/>
       <c r="AG90" s="38"/>
     </row>
-    <row r="91" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24"/>
       <c r="B91" s="25"/>
       <c r="C91" s="24"/>
@@ -12446,7 +12446,7 @@
       <c r="AF91" s="25"/>
       <c r="AG91" s="29"/>
     </row>
-    <row r="92" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="34"/>
       <c r="C92" s="33"/>
@@ -12481,7 +12481,7 @@
       <c r="AF92" s="34"/>
       <c r="AG92" s="38"/>
     </row>
-    <row r="93" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24"/>
       <c r="B93" s="25"/>
       <c r="C93" s="24"/>
@@ -12516,7 +12516,7 @@
       <c r="AF93" s="25"/>
       <c r="AG93" s="29"/>
     </row>
-    <row r="94" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="34"/>
       <c r="C94" s="33"/>
@@ -12551,7 +12551,7 @@
       <c r="AF94" s="34"/>
       <c r="AG94" s="38"/>
     </row>
-    <row r="95" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="24"/>
       <c r="B95" s="25"/>
       <c r="C95" s="24"/>
@@ -12586,7 +12586,7 @@
       <c r="AF95" s="25"/>
       <c r="AG95" s="29"/>
     </row>
-    <row r="96" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="34"/>
       <c r="C96" s="33"/>
@@ -12621,7 +12621,7 @@
       <c r="AF96" s="34"/>
       <c r="AG96" s="38"/>
     </row>
-    <row r="97" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="24"/>
       <c r="B97" s="25"/>
       <c r="C97" s="24"/>
@@ -12656,7 +12656,7 @@
       <c r="AF97" s="25"/>
       <c r="AG97" s="29"/>
     </row>
-    <row r="98" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="34"/>
       <c r="C98" s="33"/>
@@ -12691,7 +12691,7 @@
       <c r="AF98" s="34"/>
       <c r="AG98" s="38"/>
     </row>
-    <row r="99" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24"/>
       <c r="B99" s="25"/>
       <c r="C99" s="24"/>
@@ -12726,7 +12726,7 @@
       <c r="AF99" s="25"/>
       <c r="AG99" s="29"/>
     </row>
-    <row r="100" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="34"/>
       <c r="C100" s="33"/>
@@ -12761,7 +12761,7 @@
       <c r="AF100" s="34"/>
       <c r="AG100" s="38"/>
     </row>
-    <row r="101" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24"/>
       <c r="B101" s="25"/>
       <c r="C101" s="24"/>
@@ -12796,7 +12796,7 @@
       <c r="AF101" s="25"/>
       <c r="AG101" s="29"/>
     </row>
-    <row r="102" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="34"/>
       <c r="C102" s="33"/>
@@ -12831,7 +12831,7 @@
       <c r="AF102" s="34"/>
       <c r="AG102" s="38"/>
     </row>
-    <row r="103" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="24"/>
       <c r="B103" s="25"/>
       <c r="C103" s="24"/>
@@ -12866,7 +12866,7 @@
       <c r="AF103" s="25"/>
       <c r="AG103" s="29"/>
     </row>
-    <row r="104" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="34"/>
       <c r="C104" s="33"/>
@@ -12901,7 +12901,7 @@
       <c r="AF104" s="34"/>
       <c r="AG104" s="38"/>
     </row>
-    <row r="105" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24"/>
       <c r="B105" s="25"/>
       <c r="C105" s="24"/>
@@ -12936,7 +12936,7 @@
       <c r="AF105" s="25"/>
       <c r="AG105" s="29"/>
     </row>
-    <row r="106" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="34"/>
       <c r="C106" s="33"/>
@@ -12971,7 +12971,7 @@
       <c r="AF106" s="34"/>
       <c r="AG106" s="38"/>
     </row>
-    <row r="107" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="24"/>
       <c r="B107" s="25"/>
       <c r="C107" s="24"/>
@@ -13006,7 +13006,7 @@
       <c r="AF107" s="25"/>
       <c r="AG107" s="29"/>
     </row>
-    <row r="108" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="34"/>
       <c r="C108" s="33"/>
@@ -13041,7 +13041,7 @@
       <c r="AF108" s="34"/>
       <c r="AG108" s="38"/>
     </row>
-    <row r="109" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24"/>
       <c r="B109" s="25"/>
       <c r="C109" s="24"/>
@@ -13076,7 +13076,7 @@
       <c r="AF109" s="25"/>
       <c r="AG109" s="29"/>
     </row>
-    <row r="110" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="34"/>
       <c r="C110" s="33"/>
@@ -13111,7 +13111,7 @@
       <c r="AF110" s="34"/>
       <c r="AG110" s="38"/>
     </row>
-    <row r="111" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24"/>
       <c r="B111" s="25"/>
       <c r="C111" s="24"/>
@@ -13146,7 +13146,7 @@
       <c r="AF111" s="25"/>
       <c r="AG111" s="29"/>
     </row>
-    <row r="112" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="34"/>
       <c r="C112" s="33"/>
@@ -13181,7 +13181,7 @@
       <c r="AF112" s="34"/>
       <c r="AG112" s="38"/>
     </row>
-    <row r="113" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="24"/>
       <c r="B113" s="25"/>
       <c r="C113" s="24"/>
@@ -13216,7 +13216,7 @@
       <c r="AF113" s="25"/>
       <c r="AG113" s="29"/>
     </row>
-    <row r="114" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="33"/>
       <c r="B114" s="34"/>
       <c r="C114" s="33"/>
@@ -13251,7 +13251,7 @@
       <c r="AF114" s="34"/>
       <c r="AG114" s="38"/>
     </row>
-    <row r="115" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="24"/>
       <c r="B115" s="25"/>
       <c r="C115" s="24"/>
@@ -13286,7 +13286,7 @@
       <c r="AF115" s="25"/>
       <c r="AG115" s="29"/>
     </row>
-    <row r="116" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="33"/>
       <c r="B116" s="34"/>
       <c r="C116" s="33"/>
@@ -13321,7 +13321,7 @@
       <c r="AF116" s="34"/>
       <c r="AG116" s="38"/>
     </row>
-    <row r="117" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24"/>
       <c r="B117" s="25"/>
       <c r="C117" s="24"/>
@@ -13356,7 +13356,7 @@
       <c r="AF117" s="25"/>
       <c r="AG117" s="29"/>
     </row>
-    <row r="118" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="33"/>
       <c r="B118" s="34"/>
       <c r="C118" s="33"/>
@@ -13391,7 +13391,7 @@
       <c r="AF118" s="34"/>
       <c r="AG118" s="38"/>
     </row>
-    <row r="119" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="24"/>
       <c r="B119" s="25"/>
       <c r="C119" s="24"/>
@@ -13426,7 +13426,7 @@
       <c r="AF119" s="25"/>
       <c r="AG119" s="29"/>
     </row>
-    <row r="120" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="33"/>
       <c r="B120" s="34"/>
       <c r="C120" s="33"/>
@@ -13461,7 +13461,7 @@
       <c r="AF120" s="34"/>
       <c r="AG120" s="38"/>
     </row>
-    <row r="121" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="24"/>
       <c r="B121" s="25"/>
       <c r="C121" s="24"/>
@@ -13496,7 +13496,7 @@
       <c r="AF121" s="25"/>
       <c r="AG121" s="29"/>
     </row>
-    <row r="122" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="33"/>
       <c r="B122" s="34"/>
       <c r="C122" s="33"/>
@@ -13531,7 +13531,7 @@
       <c r="AF122" s="34"/>
       <c r="AG122" s="38"/>
     </row>
-    <row r="123" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="24"/>
       <c r="B123" s="25"/>
       <c r="C123" s="24"/>
@@ -13566,7 +13566,7 @@
       <c r="AF123" s="25"/>
       <c r="AG123" s="29"/>
     </row>
-    <row r="124" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="33"/>
       <c r="B124" s="34"/>
       <c r="C124" s="33"/>
@@ -13601,7 +13601,7 @@
       <c r="AF124" s="34"/>
       <c r="AG124" s="38"/>
     </row>
-    <row r="125" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="24"/>
       <c r="B125" s="25"/>
       <c r="C125" s="24"/>
@@ -13636,7 +13636,7 @@
       <c r="AF125" s="25"/>
       <c r="AG125" s="29"/>
     </row>
-    <row r="126" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="33"/>
       <c r="B126" s="34"/>
       <c r="C126" s="33"/>
@@ -13671,7 +13671,7 @@
       <c r="AF126" s="34"/>
       <c r="AG126" s="38"/>
     </row>
-    <row r="127" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="24"/>
       <c r="B127" s="25"/>
       <c r="C127" s="24"/>
@@ -13706,7 +13706,7 @@
       <c r="AF127" s="25"/>
       <c r="AG127" s="29"/>
     </row>
-    <row r="128" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="33"/>
       <c r="B128" s="34"/>
       <c r="C128" s="33"/>
@@ -13741,7 +13741,7 @@
       <c r="AF128" s="34"/>
       <c r="AG128" s="38"/>
     </row>
-    <row r="129" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="24"/>
       <c r="B129" s="25"/>
       <c r="C129" s="24"/>
@@ -13776,7 +13776,7 @@
       <c r="AF129" s="25"/>
       <c r="AG129" s="29"/>
     </row>
-    <row r="130" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="33"/>
       <c r="B130" s="34"/>
       <c r="C130" s="33"/>
@@ -13811,7 +13811,7 @@
       <c r="AF130" s="34"/>
       <c r="AG130" s="38"/>
     </row>
-    <row r="131" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="24"/>
       <c r="B131" s="25"/>
       <c r="C131" s="24"/>
@@ -13846,7 +13846,7 @@
       <c r="AF131" s="25"/>
       <c r="AG131" s="29"/>
     </row>
-    <row r="132" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="33"/>
       <c r="B132" s="34"/>
       <c r="C132" s="33"/>
@@ -13881,7 +13881,7 @@
       <c r="AF132" s="34"/>
       <c r="AG132" s="38"/>
     </row>
-    <row r="133" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="24"/>
       <c r="B133" s="25"/>
       <c r="C133" s="24"/>
@@ -13916,7 +13916,7 @@
       <c r="AF133" s="25"/>
       <c r="AG133" s="29"/>
     </row>
-    <row r="134" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="33"/>
       <c r="B134" s="34"/>
       <c r="C134" s="33"/>
@@ -13951,7 +13951,7 @@
       <c r="AF134" s="34"/>
       <c r="AG134" s="38"/>
     </row>
-    <row r="135" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="24"/>
       <c r="B135" s="25"/>
       <c r="C135" s="24"/>
@@ -13986,7 +13986,7 @@
       <c r="AF135" s="25"/>
       <c r="AG135" s="29"/>
     </row>
-    <row r="136" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="33"/>
       <c r="B136" s="34"/>
       <c r="C136" s="33"/>
@@ -14021,7 +14021,7 @@
       <c r="AF136" s="34"/>
       <c r="AG136" s="38"/>
     </row>
-    <row r="137" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="24"/>
       <c r="B137" s="25"/>
       <c r="C137" s="24"/>
@@ -14056,7 +14056,7 @@
       <c r="AF137" s="25"/>
       <c r="AG137" s="29"/>
     </row>
-    <row r="138" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="33"/>
       <c r="B138" s="34"/>
       <c r="C138" s="33"/>
@@ -14091,7 +14091,7 @@
       <c r="AF138" s="34"/>
       <c r="AG138" s="38"/>
     </row>
-    <row r="139" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="24"/>
       <c r="B139" s="25"/>
       <c r="C139" s="24"/>
@@ -14126,7 +14126,7 @@
       <c r="AF139" s="25"/>
       <c r="AG139" s="29"/>
     </row>
-    <row r="140" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="33"/>
       <c r="B140" s="34"/>
       <c r="C140" s="33"/>
@@ -14161,7 +14161,7 @@
       <c r="AF140" s="34"/>
       <c r="AG140" s="38"/>
     </row>
-    <row r="141" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="24"/>
       <c r="B141" s="25"/>
       <c r="C141" s="24"/>
@@ -14196,7 +14196,7 @@
       <c r="AF141" s="25"/>
       <c r="AG141" s="29"/>
     </row>
-    <row r="142" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="33"/>
       <c r="B142" s="34"/>
       <c r="C142" s="33"/>
@@ -14231,7 +14231,7 @@
       <c r="AF142" s="34"/>
       <c r="AG142" s="38"/>
     </row>
-    <row r="143" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="24"/>
       <c r="B143" s="25"/>
       <c r="C143" s="24"/>
@@ -14266,7 +14266,7 @@
       <c r="AF143" s="25"/>
       <c r="AG143" s="29"/>
     </row>
-    <row r="144" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="33"/>
       <c r="B144" s="34"/>
       <c r="C144" s="33"/>
@@ -14301,7 +14301,7 @@
       <c r="AF144" s="34"/>
       <c r="AG144" s="38"/>
     </row>
-    <row r="145" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24"/>
       <c r="B145" s="25"/>
       <c r="C145" s="24"/>
@@ -14336,7 +14336,7 @@
       <c r="AF145" s="25"/>
       <c r="AG145" s="29"/>
     </row>
-    <row r="146" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="33"/>
       <c r="B146" s="34"/>
       <c r="C146" s="33"/>
@@ -14371,7 +14371,7 @@
       <c r="AF146" s="34"/>
       <c r="AG146" s="38"/>
     </row>
-    <row r="147" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="24"/>
       <c r="B147" s="25"/>
       <c r="C147" s="24"/>
@@ -14406,7 +14406,7 @@
       <c r="AF147" s="25"/>
       <c r="AG147" s="29"/>
     </row>
-    <row r="148" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="33"/>
       <c r="B148" s="34"/>
       <c r="C148" s="33"/>
@@ -14441,7 +14441,7 @@
       <c r="AF148" s="34"/>
       <c r="AG148" s="38"/>
     </row>
-    <row r="149" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="24"/>
       <c r="B149" s="25"/>
       <c r="C149" s="24"/>
@@ -14476,7 +14476,7 @@
       <c r="AF149" s="25"/>
       <c r="AG149" s="29"/>
     </row>
-    <row r="150" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="33"/>
       <c r="B150" s="34"/>
       <c r="C150" s="33"/>
@@ -14511,7 +14511,7 @@
       <c r="AF150" s="34"/>
       <c r="AG150" s="38"/>
     </row>
-    <row r="151" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="24"/>
       <c r="B151" s="25"/>
       <c r="C151" s="24"/>
@@ -14546,7 +14546,7 @@
       <c r="AF151" s="25"/>
       <c r="AG151" s="29"/>
     </row>
-    <row r="152" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="33"/>
       <c r="B152" s="34"/>
       <c r="C152" s="33"/>
@@ -14581,7 +14581,7 @@
       <c r="AF152" s="34"/>
       <c r="AG152" s="38"/>
     </row>
-    <row r="153" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="24"/>
       <c r="B153" s="25"/>
       <c r="C153" s="24"/>
@@ -14616,7 +14616,7 @@
       <c r="AF153" s="25"/>
       <c r="AG153" s="29"/>
     </row>
-    <row r="154" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="33"/>
       <c r="B154" s="34"/>
       <c r="C154" s="33"/>
@@ -14651,7 +14651,7 @@
       <c r="AF154" s="34"/>
       <c r="AG154" s="38"/>
     </row>
-    <row r="155" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="24"/>
       <c r="B155" s="25"/>
       <c r="C155" s="24"/>
@@ -14686,7 +14686,7 @@
       <c r="AF155" s="25"/>
       <c r="AG155" s="29"/>
     </row>
-    <row r="156" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="33"/>
       <c r="B156" s="34"/>
       <c r="C156" s="33"/>
@@ -14721,7 +14721,7 @@
       <c r="AF156" s="34"/>
       <c r="AG156" s="38"/>
     </row>
-    <row r="157" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="24"/>
       <c r="B157" s="25"/>
       <c r="C157" s="24"/>
@@ -14756,7 +14756,7 @@
       <c r="AF157" s="25"/>
       <c r="AG157" s="29"/>
     </row>
-    <row r="158" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="33"/>
       <c r="B158" s="34"/>
       <c r="C158" s="33"/>
@@ -14791,7 +14791,7 @@
       <c r="AF158" s="34"/>
       <c r="AG158" s="38"/>
     </row>
-    <row r="159" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="24"/>
       <c r="B159" s="25"/>
       <c r="C159" s="24"/>
@@ -14826,7 +14826,7 @@
       <c r="AF159" s="25"/>
       <c r="AG159" s="29"/>
     </row>
-    <row r="160" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="33"/>
       <c r="B160" s="34"/>
       <c r="C160" s="33"/>
@@ -14861,7 +14861,7 @@
       <c r="AF160" s="34"/>
       <c r="AG160" s="38"/>
     </row>
-    <row r="161" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="24"/>
       <c r="B161" s="25"/>
       <c r="C161" s="24"/>
@@ -14896,7 +14896,7 @@
       <c r="AF161" s="25"/>
       <c r="AG161" s="29"/>
     </row>
-    <row r="162" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="33"/>
       <c r="B162" s="34"/>
       <c r="C162" s="33"/>
@@ -14931,7 +14931,7 @@
       <c r="AF162" s="34"/>
       <c r="AG162" s="38"/>
     </row>
-    <row r="163" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="24"/>
       <c r="B163" s="25"/>
       <c r="C163" s="24"/>
@@ -14966,7 +14966,7 @@
       <c r="AF163" s="25"/>
       <c r="AG163" s="29"/>
     </row>
-    <row r="164" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="33"/>
       <c r="B164" s="34"/>
       <c r="C164" s="33"/>
@@ -15001,7 +15001,7 @@
       <c r="AF164" s="34"/>
       <c r="AG164" s="38"/>
     </row>
-    <row r="165" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="24"/>
       <c r="B165" s="25"/>
       <c r="C165" s="24"/>
@@ -15036,7 +15036,7 @@
       <c r="AF165" s="25"/>
       <c r="AG165" s="29"/>
     </row>
-    <row r="166" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="33"/>
       <c r="B166" s="34"/>
       <c r="C166" s="33"/>
@@ -15071,7 +15071,7 @@
       <c r="AF166" s="34"/>
       <c r="AG166" s="38"/>
     </row>
-    <row r="167" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="24"/>
       <c r="B167" s="25"/>
       <c r="C167" s="24"/>
@@ -15106,7 +15106,7 @@
       <c r="AF167" s="25"/>
       <c r="AG167" s="29"/>
     </row>
-    <row r="168" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="33"/>
       <c r="B168" s="34"/>
       <c r="C168" s="33"/>
@@ -15141,7 +15141,7 @@
       <c r="AF168" s="34"/>
       <c r="AG168" s="38"/>
     </row>
-    <row r="169" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="24"/>
       <c r="B169" s="25"/>
       <c r="C169" s="24"/>
@@ -15176,7 +15176,7 @@
       <c r="AF169" s="25"/>
       <c r="AG169" s="29"/>
     </row>
-    <row r="170" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="33"/>
       <c r="B170" s="34"/>
       <c r="C170" s="33"/>
@@ -15211,7 +15211,7 @@
       <c r="AF170" s="34"/>
       <c r="AG170" s="38"/>
     </row>
-    <row r="171" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="24"/>
       <c r="B171" s="25"/>
       <c r="C171" s="24"/>
@@ -15246,7 +15246,7 @@
       <c r="AF171" s="25"/>
       <c r="AG171" s="29"/>
     </row>
-    <row r="172" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="33"/>
       <c r="B172" s="34"/>
       <c r="C172" s="33"/>
@@ -15281,7 +15281,7 @@
       <c r="AF172" s="34"/>
       <c r="AG172" s="38"/>
     </row>
-    <row r="173" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="24"/>
       <c r="B173" s="25"/>
       <c r="C173" s="24"/>
@@ -15316,7 +15316,7 @@
       <c r="AF173" s="25"/>
       <c r="AG173" s="29"/>
     </row>
-    <row r="174" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="33"/>
       <c r="B174" s="34"/>
       <c r="C174" s="33"/>
@@ -15351,7 +15351,7 @@
       <c r="AF174" s="34"/>
       <c r="AG174" s="38"/>
     </row>
-    <row r="175" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="24"/>
       <c r="B175" s="25"/>
       <c r="C175" s="24"/>
@@ -15386,7 +15386,7 @@
       <c r="AF175" s="25"/>
       <c r="AG175" s="29"/>
     </row>
-    <row r="176" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="33"/>
       <c r="B176" s="34"/>
       <c r="C176" s="33"/>
@@ -15421,7 +15421,7 @@
       <c r="AF176" s="34"/>
       <c r="AG176" s="38"/>
     </row>
-    <row r="177" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="24"/>
       <c r="B177" s="25"/>
       <c r="C177" s="24"/>
@@ -15456,7 +15456,7 @@
       <c r="AF177" s="25"/>
       <c r="AG177" s="29"/>
     </row>
-    <row r="178" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="33"/>
       <c r="B178" s="34"/>
       <c r="C178" s="33"/>
@@ -15491,7 +15491,7 @@
       <c r="AF178" s="34"/>
       <c r="AG178" s="38"/>
     </row>
-    <row r="179" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="24"/>
       <c r="B179" s="25"/>
       <c r="C179" s="24"/>
@@ -15526,7 +15526,7 @@
       <c r="AF179" s="25"/>
       <c r="AG179" s="29"/>
     </row>
-    <row r="180" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="33"/>
       <c r="B180" s="34"/>
       <c r="C180" s="33"/>
@@ -15561,7 +15561,7 @@
       <c r="AF180" s="34"/>
       <c r="AG180" s="38"/>
     </row>
-    <row r="181" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="24"/>
       <c r="B181" s="25"/>
       <c r="C181" s="24"/>
@@ -15596,7 +15596,7 @@
       <c r="AF181" s="25"/>
       <c r="AG181" s="29"/>
     </row>
-    <row r="182" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="33"/>
       <c r="B182" s="34"/>
       <c r="C182" s="33"/>
@@ -15631,7 +15631,7 @@
       <c r="AF182" s="34"/>
       <c r="AG182" s="38"/>
     </row>
-    <row r="183" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="24"/>
       <c r="B183" s="25"/>
       <c r="C183" s="24"/>
@@ -15666,7 +15666,7 @@
       <c r="AF183" s="25"/>
       <c r="AG183" s="29"/>
     </row>
-    <row r="184" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="33"/>
       <c r="B184" s="34"/>
       <c r="C184" s="33"/>
@@ -15701,7 +15701,7 @@
       <c r="AF184" s="34"/>
       <c r="AG184" s="38"/>
     </row>
-    <row r="185" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="24"/>
       <c r="B185" s="25"/>
       <c r="C185" s="24"/>
@@ -15736,7 +15736,7 @@
       <c r="AF185" s="25"/>
       <c r="AG185" s="29"/>
     </row>
-    <row r="186" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="33"/>
       <c r="B186" s="34"/>
       <c r="C186" s="33"/>
@@ -15771,7 +15771,7 @@
       <c r="AF186" s="34"/>
       <c r="AG186" s="38"/>
     </row>
-    <row r="187" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="24"/>
       <c r="B187" s="25"/>
       <c r="C187" s="24"/>
@@ -15806,7 +15806,7 @@
       <c r="AF187" s="25"/>
       <c r="AG187" s="29"/>
     </row>
-    <row r="188" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="33"/>
       <c r="B188" s="34"/>
       <c r="C188" s="33"/>
@@ -15841,7 +15841,7 @@
       <c r="AF188" s="34"/>
       <c r="AG188" s="38"/>
     </row>
-    <row r="189" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="24"/>
       <c r="B189" s="25"/>
       <c r="C189" s="24"/>
@@ -15876,7 +15876,7 @@
       <c r="AF189" s="25"/>
       <c r="AG189" s="29"/>
     </row>
-    <row r="190" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="33"/>
       <c r="B190" s="34"/>
       <c r="C190" s="33"/>
@@ -15911,7 +15911,7 @@
       <c r="AF190" s="34"/>
       <c r="AG190" s="38"/>
     </row>
-    <row r="191" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="24"/>
       <c r="B191" s="25"/>
       <c r="C191" s="24"/>
@@ -15946,7 +15946,7 @@
       <c r="AF191" s="25"/>
       <c r="AG191" s="29"/>
     </row>
-    <row r="192" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="33"/>
       <c r="B192" s="34"/>
       <c r="C192" s="33"/>
@@ -15981,7 +15981,7 @@
       <c r="AF192" s="34"/>
       <c r="AG192" s="38"/>
     </row>
-    <row r="193" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="24"/>
       <c r="B193" s="25"/>
       <c r="C193" s="24"/>
@@ -16016,7 +16016,7 @@
       <c r="AF193" s="25"/>
       <c r="AG193" s="29"/>
     </row>
-    <row r="194" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="33"/>
       <c r="B194" s="34"/>
       <c r="C194" s="33"/>
@@ -16051,7 +16051,7 @@
       <c r="AF194" s="34"/>
       <c r="AG194" s="38"/>
     </row>
-    <row r="195" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="24"/>
       <c r="B195" s="25"/>
       <c r="C195" s="24"/>
@@ -16086,7 +16086,7 @@
       <c r="AF195" s="25"/>
       <c r="AG195" s="29"/>
     </row>
-    <row r="196" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="33"/>
       <c r="B196" s="34"/>
       <c r="C196" s="33"/>
@@ -16121,7 +16121,7 @@
       <c r="AF196" s="34"/>
       <c r="AG196" s="38"/>
     </row>
-    <row r="197" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="24"/>
       <c r="B197" s="25"/>
       <c r="C197" s="24"/>
@@ -16156,7 +16156,7 @@
       <c r="AF197" s="25"/>
       <c r="AG197" s="29"/>
     </row>
-    <row r="198" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="33"/>
       <c r="B198" s="34"/>
       <c r="C198" s="33"/>
@@ -16191,7 +16191,7 @@
       <c r="AF198" s="34"/>
       <c r="AG198" s="38"/>
     </row>
-    <row r="199" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="24"/>
       <c r="B199" s="25"/>
       <c r="C199" s="24"/>
@@ -16226,7 +16226,7 @@
       <c r="AF199" s="25"/>
       <c r="AG199" s="29"/>
     </row>
-    <row r="200" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="33"/>
       <c r="B200" s="34"/>
       <c r="C200" s="33"/>
@@ -16261,7 +16261,7 @@
       <c r="AF200" s="34"/>
       <c r="AG200" s="38"/>
     </row>
-    <row r="201" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="24"/>
       <c r="B201" s="25"/>
       <c r="C201" s="24"/>
@@ -16296,7 +16296,7 @@
       <c r="AF201" s="25"/>
       <c r="AG201" s="29"/>
     </row>
-    <row r="202" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="33"/>
       <c r="B202" s="34"/>
       <c r="C202" s="33"/>
@@ -16331,7 +16331,7 @@
       <c r="AF202" s="34"/>
       <c r="AG202" s="38"/>
     </row>
-    <row r="203" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="24"/>
       <c r="B203" s="25"/>
       <c r="C203" s="24"/>
@@ -16366,7 +16366,7 @@
       <c r="AF203" s="25"/>
       <c r="AG203" s="29"/>
     </row>
-    <row r="204" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="33"/>
       <c r="B204" s="34"/>
       <c r="C204" s="33"/>
@@ -16401,7 +16401,7 @@
       <c r="AF204" s="34"/>
       <c r="AG204" s="38"/>
     </row>
-    <row r="205" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="24"/>
       <c r="B205" s="25"/>
       <c r="C205" s="24"/>
@@ -16436,7 +16436,7 @@
       <c r="AF205" s="25"/>
       <c r="AG205" s="29"/>
     </row>
-    <row r="206" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="33"/>
       <c r="B206" s="34"/>
       <c r="C206" s="33"/>
@@ -16471,7 +16471,7 @@
       <c r="AF206" s="34"/>
       <c r="AG206" s="38"/>
     </row>
-    <row r="207" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="24"/>
       <c r="B207" s="25"/>
       <c r="C207" s="24"/>
@@ -16506,7 +16506,7 @@
       <c r="AF207" s="25"/>
       <c r="AG207" s="29"/>
     </row>
-    <row r="208" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="33"/>
       <c r="B208" s="34"/>
       <c r="C208" s="33"/>
@@ -16541,7 +16541,7 @@
       <c r="AF208" s="34"/>
       <c r="AG208" s="38"/>
     </row>
-    <row r="209" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="24"/>
       <c r="B209" s="25"/>
       <c r="C209" s="24"/>
@@ -16576,7 +16576,7 @@
       <c r="AF209" s="25"/>
       <c r="AG209" s="29"/>
     </row>
-    <row r="210" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="33"/>
       <c r="B210" s="34"/>
       <c r="C210" s="33"/>
@@ -16611,7 +16611,7 @@
       <c r="AF210" s="34"/>
       <c r="AG210" s="38"/>
     </row>
-    <row r="211" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="24"/>
       <c r="B211" s="25"/>
       <c r="C211" s="24"/>
@@ -16646,7 +16646,7 @@
       <c r="AF211" s="25"/>
       <c r="AG211" s="29"/>
     </row>
-    <row r="212" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="33"/>
       <c r="B212" s="34"/>
       <c r="C212" s="33"/>
@@ -16681,7 +16681,7 @@
       <c r="AF212" s="34"/>
       <c r="AG212" s="38"/>
     </row>
-    <row r="213" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="24"/>
       <c r="B213" s="25"/>
       <c r="C213" s="24"/>
@@ -16716,7 +16716,7 @@
       <c r="AF213" s="25"/>
       <c r="AG213" s="29"/>
     </row>
-    <row r="214" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="33"/>
       <c r="B214" s="34"/>
       <c r="C214" s="33"/>
@@ -16751,7 +16751,7 @@
       <c r="AF214" s="34"/>
       <c r="AG214" s="38"/>
     </row>
-    <row r="215" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="24"/>
       <c r="B215" s="25"/>
       <c r="C215" s="24"/>
@@ -16786,7 +16786,7 @@
       <c r="AF215" s="25"/>
       <c r="AG215" s="29"/>
     </row>
-    <row r="216" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="33"/>
       <c r="B216" s="34"/>
       <c r="C216" s="33"/>
@@ -16821,7 +16821,7 @@
       <c r="AF216" s="34"/>
       <c r="AG216" s="38"/>
     </row>
-    <row r="217" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="24"/>
       <c r="B217" s="25"/>
       <c r="C217" s="24"/>
@@ -16856,7 +16856,7 @@
       <c r="AF217" s="25"/>
       <c r="AG217" s="29"/>
     </row>
-    <row r="218" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="33"/>
       <c r="B218" s="34"/>
       <c r="C218" s="33"/>
@@ -16891,7 +16891,7 @@
       <c r="AF218" s="34"/>
       <c r="AG218" s="38"/>
     </row>
-    <row r="219" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="24"/>
       <c r="B219" s="25"/>
       <c r="C219" s="24"/>
@@ -16926,7 +16926,7 @@
       <c r="AF219" s="25"/>
       <c r="AG219" s="29"/>
     </row>
-    <row r="220" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="33"/>
       <c r="B220" s="34"/>
       <c r="C220" s="33"/>
@@ -16961,7 +16961,7 @@
       <c r="AF220" s="34"/>
       <c r="AG220" s="38"/>
     </row>
-    <row r="221" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="24"/>
       <c r="B221" s="25"/>
       <c r="C221" s="24"/>
@@ -16996,7 +16996,7 @@
       <c r="AF221" s="25"/>
       <c r="AG221" s="29"/>
     </row>
-    <row r="222" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="33"/>
       <c r="B222" s="34"/>
       <c r="C222" s="33"/>
@@ -17031,7 +17031,7 @@
       <c r="AF222" s="34"/>
       <c r="AG222" s="38"/>
     </row>
-    <row r="223" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="24"/>
       <c r="B223" s="25"/>
       <c r="C223" s="24"/>
@@ -17066,7 +17066,7 @@
       <c r="AF223" s="25"/>
       <c r="AG223" s="29"/>
     </row>
-    <row r="224" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="33"/>
       <c r="B224" s="34"/>
       <c r="C224" s="33"/>
@@ -17101,7 +17101,7 @@
       <c r="AF224" s="34"/>
       <c r="AG224" s="38"/>
     </row>
-    <row r="225" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="24"/>
       <c r="B225" s="25"/>
       <c r="C225" s="24"/>
@@ -17136,7 +17136,7 @@
       <c r="AF225" s="25"/>
       <c r="AG225" s="29"/>
     </row>
-    <row r="226" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="33"/>
       <c r="B226" s="34"/>
       <c r="C226" s="33"/>
@@ -17171,7 +17171,7 @@
       <c r="AF226" s="34"/>
       <c r="AG226" s="38"/>
     </row>
-    <row r="227" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="24"/>
       <c r="B227" s="25"/>
       <c r="C227" s="24"/>
@@ -17206,7 +17206,7 @@
       <c r="AF227" s="25"/>
       <c r="AG227" s="29"/>
     </row>
-    <row r="228" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="33"/>
       <c r="B228" s="34"/>
       <c r="C228" s="33"/>
@@ -17241,7 +17241,7 @@
       <c r="AF228" s="34"/>
       <c r="AG228" s="38"/>
     </row>
-    <row r="229" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="24"/>
       <c r="B229" s="25"/>
       <c r="C229" s="24"/>
@@ -17276,7 +17276,7 @@
       <c r="AF229" s="25"/>
       <c r="AG229" s="29"/>
     </row>
-    <row r="230" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="33"/>
       <c r="B230" s="34"/>
       <c r="C230" s="33"/>
@@ -17311,7 +17311,7 @@
       <c r="AF230" s="34"/>
       <c r="AG230" s="38"/>
     </row>
-    <row r="231" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="24"/>
       <c r="B231" s="25"/>
       <c r="C231" s="24"/>
@@ -17346,7 +17346,7 @@
       <c r="AF231" s="25"/>
       <c r="AG231" s="29"/>
     </row>
-    <row r="232" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="33"/>
       <c r="B232" s="34"/>
       <c r="C232" s="33"/>
@@ -17381,7 +17381,7 @@
       <c r="AF232" s="34"/>
       <c r="AG232" s="38"/>
     </row>
-    <row r="233" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="24"/>
       <c r="B233" s="25"/>
       <c r="C233" s="24"/>
@@ -17416,7 +17416,7 @@
       <c r="AF233" s="25"/>
       <c r="AG233" s="29"/>
     </row>
-    <row r="234" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="33"/>
       <c r="B234" s="34"/>
       <c r="C234" s="33"/>
@@ -17451,7 +17451,7 @@
       <c r="AF234" s="34"/>
       <c r="AG234" s="38"/>
     </row>
-    <row r="235" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="24"/>
       <c r="B235" s="25"/>
       <c r="C235" s="24"/>
@@ -17486,7 +17486,7 @@
       <c r="AF235" s="25"/>
       <c r="AG235" s="29"/>
     </row>
-    <row r="236" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="33"/>
       <c r="B236" s="34"/>
       <c r="C236" s="33"/>
@@ -17521,7 +17521,7 @@
       <c r="AF236" s="34"/>
       <c r="AG236" s="38"/>
     </row>
-    <row r="237" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="24"/>
       <c r="B237" s="25"/>
       <c r="C237" s="24"/>
@@ -17556,7 +17556,7 @@
       <c r="AF237" s="25"/>
       <c r="AG237" s="29"/>
     </row>
-    <row r="238" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="33"/>
       <c r="B238" s="34"/>
       <c r="C238" s="33"/>
@@ -17591,7 +17591,7 @@
       <c r="AF238" s="34"/>
       <c r="AG238" s="38"/>
     </row>
-    <row r="239" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="24"/>
       <c r="B239" s="25"/>
       <c r="C239" s="24"/>
@@ -17626,7 +17626,7 @@
       <c r="AF239" s="25"/>
       <c r="AG239" s="29"/>
     </row>
-    <row r="240" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="33"/>
       <c r="B240" s="34"/>
       <c r="C240" s="33"/>
@@ -17661,7 +17661,7 @@
       <c r="AF240" s="34"/>
       <c r="AG240" s="38"/>
     </row>
-    <row r="241" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="24"/>
       <c r="B241" s="25"/>
       <c r="C241" s="24"/>
@@ -17696,7 +17696,7 @@
       <c r="AF241" s="25"/>
       <c r="AG241" s="29"/>
     </row>
-    <row r="242" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="33"/>
       <c r="B242" s="34"/>
       <c r="C242" s="33"/>
@@ -17731,7 +17731,7 @@
       <c r="AF242" s="34"/>
       <c r="AG242" s="38"/>
     </row>
-    <row r="243" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="24"/>
       <c r="B243" s="25"/>
       <c r="C243" s="24"/>
@@ -17766,7 +17766,7 @@
       <c r="AF243" s="25"/>
       <c r="AG243" s="29"/>
     </row>
-    <row r="244" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="33"/>
       <c r="B244" s="34"/>
       <c r="C244" s="33"/>
@@ -17801,7 +17801,7 @@
       <c r="AF244" s="34"/>
       <c r="AG244" s="38"/>
     </row>
-    <row r="245" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="24"/>
       <c r="B245" s="25"/>
       <c r="C245" s="24"/>
@@ -17836,7 +17836,7 @@
       <c r="AF245" s="25"/>
       <c r="AG245" s="29"/>
     </row>
-    <row r="246" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="33"/>
       <c r="B246" s="34"/>
       <c r="C246" s="33"/>
@@ -17871,7 +17871,7 @@
       <c r="AF246" s="34"/>
       <c r="AG246" s="38"/>
     </row>
-    <row r="247" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="24"/>
       <c r="B247" s="25"/>
       <c r="C247" s="24"/>
@@ -17906,7 +17906,7 @@
       <c r="AF247" s="25"/>
       <c r="AG247" s="29"/>
     </row>
-    <row r="248" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="33"/>
       <c r="B248" s="34"/>
       <c r="C248" s="33"/>
@@ -17941,7 +17941,7 @@
       <c r="AF248" s="34"/>
       <c r="AG248" s="38"/>
     </row>
-    <row r="249" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="24"/>
       <c r="B249" s="25"/>
       <c r="C249" s="24"/>
@@ -17976,7 +17976,7 @@
       <c r="AF249" s="25"/>
       <c r="AG249" s="29"/>
     </row>
-    <row r="250" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="33"/>
       <c r="B250" s="34"/>
       <c r="C250" s="33"/>
@@ -18011,7 +18011,7 @@
       <c r="AF250" s="34"/>
       <c r="AG250" s="38"/>
     </row>
-    <row r="251" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="24"/>
       <c r="B251" s="25"/>
       <c r="C251" s="24"/>
@@ -18046,7 +18046,7 @@
       <c r="AF251" s="25"/>
       <c r="AG251" s="29"/>
     </row>
-    <row r="252" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="33"/>
       <c r="B252" s="34"/>
       <c r="C252" s="33"/>
@@ -18081,7 +18081,7 @@
       <c r="AF252" s="34"/>
       <c r="AG252" s="38"/>
     </row>
-    <row r="253" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="24"/>
       <c r="B253" s="25"/>
       <c r="C253" s="24"/>
@@ -18116,7 +18116,7 @@
       <c r="AF253" s="25"/>
       <c r="AG253" s="29"/>
     </row>
-    <row r="254" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="33"/>
       <c r="B254" s="34"/>
       <c r="C254" s="33"/>
@@ -18151,7 +18151,7 @@
       <c r="AF254" s="34"/>
       <c r="AG254" s="38"/>
     </row>
-    <row r="255" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="24"/>
       <c r="B255" s="25"/>
       <c r="C255" s="24"/>
@@ -18186,7 +18186,7 @@
       <c r="AF255" s="25"/>
       <c r="AG255" s="29"/>
     </row>
-    <row r="256" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="33"/>
       <c r="B256" s="34"/>
       <c r="C256" s="33"/>
@@ -18221,7 +18221,7 @@
       <c r="AF256" s="34"/>
       <c r="AG256" s="38"/>
     </row>
-    <row r="257" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="24"/>
       <c r="B257" s="25"/>
       <c r="C257" s="24"/>
@@ -18256,7 +18256,7 @@
       <c r="AF257" s="25"/>
       <c r="AG257" s="29"/>
     </row>
-    <row r="258" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="33"/>
       <c r="B258" s="34"/>
       <c r="C258" s="33"/>
@@ -18291,7 +18291,7 @@
       <c r="AF258" s="34"/>
       <c r="AG258" s="38"/>
     </row>
-    <row r="259" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="24"/>
       <c r="B259" s="25"/>
       <c r="C259" s="24"/>
@@ -18326,7 +18326,7 @@
       <c r="AF259" s="25"/>
       <c r="AG259" s="29"/>
     </row>
-    <row r="260" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="33"/>
       <c r="B260" s="34"/>
       <c r="C260" s="33"/>
@@ -18361,7 +18361,7 @@
       <c r="AF260" s="34"/>
       <c r="AG260" s="38"/>
     </row>
-    <row r="261" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="24"/>
       <c r="B261" s="25"/>
       <c r="C261" s="24"/>
@@ -18396,7 +18396,7 @@
       <c r="AF261" s="25"/>
       <c r="AG261" s="29"/>
     </row>
-    <row r="262" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="33"/>
       <c r="B262" s="34"/>
       <c r="C262" s="33"/>
@@ -18431,7 +18431,7 @@
       <c r="AF262" s="34"/>
       <c r="AG262" s="38"/>
     </row>
-    <row r="263" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="24"/>
       <c r="B263" s="25"/>
       <c r="C263" s="24"/>
@@ -18466,7 +18466,7 @@
       <c r="AF263" s="25"/>
       <c r="AG263" s="29"/>
     </row>
-    <row r="264" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="33"/>
       <c r="B264" s="34"/>
       <c r="C264" s="33"/>
@@ -18501,7 +18501,7 @@
       <c r="AF264" s="34"/>
       <c r="AG264" s="38"/>
     </row>
-    <row r="265" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="24"/>
       <c r="B265" s="25"/>
       <c r="C265" s="24"/>
@@ -18536,7 +18536,7 @@
       <c r="AF265" s="25"/>
       <c r="AG265" s="29"/>
     </row>
-    <row r="266" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="33"/>
       <c r="B266" s="34"/>
       <c r="C266" s="33"/>
@@ -18571,7 +18571,7 @@
       <c r="AF266" s="34"/>
       <c r="AG266" s="38"/>
     </row>
-    <row r="267" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="24"/>
       <c r="B267" s="25"/>
       <c r="C267" s="24"/>
@@ -18606,7 +18606,7 @@
       <c r="AF267" s="25"/>
       <c r="AG267" s="29"/>
     </row>
-    <row r="268" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="33"/>
       <c r="B268" s="34"/>
       <c r="C268" s="33"/>
@@ -18641,7 +18641,7 @@
       <c r="AF268" s="34"/>
       <c r="AG268" s="38"/>
     </row>
-    <row r="269" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="24"/>
       <c r="B269" s="25"/>
       <c r="C269" s="24"/>
@@ -18676,7 +18676,7 @@
       <c r="AF269" s="25"/>
       <c r="AG269" s="29"/>
     </row>
-    <row r="270" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="33"/>
       <c r="B270" s="34"/>
       <c r="C270" s="33"/>
@@ -18711,7 +18711,7 @@
       <c r="AF270" s="34"/>
       <c r="AG270" s="38"/>
     </row>
-    <row r="271" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="24"/>
       <c r="B271" s="25"/>
       <c r="C271" s="24"/>
@@ -18746,7 +18746,7 @@
       <c r="AF271" s="25"/>
       <c r="AG271" s="29"/>
     </row>
-    <row r="272" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="33"/>
       <c r="B272" s="34"/>
       <c r="C272" s="33"/>
@@ -18781,7 +18781,7 @@
       <c r="AF272" s="34"/>
       <c r="AG272" s="38"/>
     </row>
-    <row r="273" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="24"/>
       <c r="B273" s="25"/>
       <c r="C273" s="24"/>
@@ -18816,7 +18816,7 @@
       <c r="AF273" s="25"/>
       <c r="AG273" s="29"/>
     </row>
-    <row r="274" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="33"/>
       <c r="B274" s="34"/>
       <c r="C274" s="33"/>
@@ -18851,7 +18851,7 @@
       <c r="AF274" s="34"/>
       <c r="AG274" s="38"/>
     </row>
-    <row r="275" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="24"/>
       <c r="B275" s="25"/>
       <c r="C275" s="24"/>
@@ -18886,7 +18886,7 @@
       <c r="AF275" s="25"/>
       <c r="AG275" s="29"/>
     </row>
-    <row r="276" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="33"/>
       <c r="B276" s="34"/>
       <c r="C276" s="33"/>
@@ -18921,7 +18921,7 @@
       <c r="AF276" s="34"/>
       <c r="AG276" s="38"/>
     </row>
-    <row r="277" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="24"/>
       <c r="B277" s="25"/>
       <c r="C277" s="24"/>
@@ -18956,7 +18956,7 @@
       <c r="AF277" s="25"/>
       <c r="AG277" s="29"/>
     </row>
-    <row r="278" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="33"/>
       <c r="B278" s="34"/>
       <c r="C278" s="33"/>
@@ -18991,7 +18991,7 @@
       <c r="AF278" s="34"/>
       <c r="AG278" s="38"/>
     </row>
-    <row r="279" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="24"/>
       <c r="B279" s="25"/>
       <c r="C279" s="24"/>
@@ -19026,7 +19026,7 @@
       <c r="AF279" s="25"/>
       <c r="AG279" s="29"/>
     </row>
-    <row r="280" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="33"/>
       <c r="B280" s="34"/>
       <c r="C280" s="33"/>
@@ -19061,7 +19061,7 @@
       <c r="AF280" s="34"/>
       <c r="AG280" s="38"/>
     </row>
-    <row r="281" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="24"/>
       <c r="B281" s="25"/>
       <c r="C281" s="24"/>
@@ -19096,7 +19096,7 @@
       <c r="AF281" s="25"/>
       <c r="AG281" s="29"/>
     </row>
-    <row r="282" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="33"/>
       <c r="B282" s="34"/>
       <c r="C282" s="33"/>
@@ -19131,7 +19131,7 @@
       <c r="AF282" s="34"/>
       <c r="AG282" s="38"/>
     </row>
-    <row r="283" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="24"/>
       <c r="B283" s="25"/>
       <c r="C283" s="24"/>
@@ -19166,7 +19166,7 @@
       <c r="AF283" s="25"/>
       <c r="AG283" s="29"/>
     </row>
-    <row r="284" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="33"/>
       <c r="B284" s="34"/>
       <c r="C284" s="33"/>
@@ -19201,7 +19201,7 @@
       <c r="AF284" s="34"/>
       <c r="AG284" s="38"/>
     </row>
-    <row r="285" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="24"/>
       <c r="B285" s="25"/>
       <c r="C285" s="24"/>
@@ -19236,7 +19236,7 @@
       <c r="AF285" s="25"/>
       <c r="AG285" s="29"/>
     </row>
-    <row r="286" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="33"/>
       <c r="B286" s="34"/>
       <c r="C286" s="33"/>
@@ -19271,7 +19271,7 @@
       <c r="AF286" s="34"/>
       <c r="AG286" s="38"/>
     </row>
-    <row r="287" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="24"/>
       <c r="B287" s="25"/>
       <c r="C287" s="24"/>
@@ -19306,7 +19306,7 @@
       <c r="AF287" s="25"/>
       <c r="AG287" s="29"/>
     </row>
-    <row r="288" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="33"/>
       <c r="B288" s="34"/>
       <c r="C288" s="33"/>
@@ -19341,7 +19341,7 @@
       <c r="AF288" s="34"/>
       <c r="AG288" s="38"/>
     </row>
-    <row r="289" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="24"/>
       <c r="B289" s="25"/>
       <c r="C289" s="24"/>
@@ -19376,7 +19376,7 @@
       <c r="AF289" s="25"/>
       <c r="AG289" s="29"/>
     </row>
-    <row r="290" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="33"/>
       <c r="B290" s="34"/>
       <c r="C290" s="33"/>
@@ -19411,7 +19411,7 @@
       <c r="AF290" s="34"/>
       <c r="AG290" s="38"/>
     </row>
-    <row r="291" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="24"/>
       <c r="B291" s="25"/>
       <c r="C291" s="24"/>
@@ -19446,7 +19446,7 @@
       <c r="AF291" s="25"/>
       <c r="AG291" s="29"/>
     </row>
-    <row r="292" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="33"/>
       <c r="B292" s="34"/>
       <c r="C292" s="33"/>
@@ -19481,7 +19481,7 @@
       <c r="AF292" s="34"/>
       <c r="AG292" s="38"/>
     </row>
-    <row r="293" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="24"/>
       <c r="B293" s="25"/>
       <c r="C293" s="24"/>
@@ -19516,7 +19516,7 @@
       <c r="AF293" s="25"/>
       <c r="AG293" s="29"/>
     </row>
-    <row r="294" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="33"/>
       <c r="B294" s="34"/>
       <c r="C294" s="33"/>
@@ -19551,7 +19551,7 @@
       <c r="AF294" s="34"/>
       <c r="AG294" s="38"/>
     </row>
-    <row r="295" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="24"/>
       <c r="B295" s="25"/>
       <c r="C295" s="24"/>
@@ -19586,7 +19586,7 @@
       <c r="AF295" s="25"/>
       <c r="AG295" s="29"/>
     </row>
-    <row r="296" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="33"/>
       <c r="B296" s="34"/>
       <c r="C296" s="33"/>
@@ -19621,7 +19621,7 @@
       <c r="AF296" s="34"/>
       <c r="AG296" s="38"/>
     </row>
-    <row r="297" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="24"/>
       <c r="B297" s="25"/>
       <c r="C297" s="24"/>
@@ -19656,7 +19656,7 @@
       <c r="AF297" s="25"/>
       <c r="AG297" s="29"/>
     </row>
-    <row r="298" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="33"/>
       <c r="B298" s="34"/>
       <c r="C298" s="33"/>
@@ -19691,7 +19691,7 @@
       <c r="AF298" s="34"/>
       <c r="AG298" s="38"/>
     </row>
-    <row r="299" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="24"/>
       <c r="B299" s="25"/>
       <c r="C299" s="24"/>
@@ -19726,7 +19726,7 @@
       <c r="AF299" s="25"/>
       <c r="AG299" s="29"/>
     </row>
-    <row r="300" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="33"/>
       <c r="B300" s="34"/>
       <c r="C300" s="33"/>
@@ -19761,7 +19761,7 @@
       <c r="AF300" s="34"/>
       <c r="AG300" s="38"/>
     </row>
-    <row r="301" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="24"/>
       <c r="B301" s="25"/>
       <c r="C301" s="24"/>
@@ -19796,7 +19796,7 @@
       <c r="AF301" s="25"/>
       <c r="AG301" s="29"/>
     </row>
-    <row r="302" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="33"/>
       <c r="B302" s="34"/>
       <c r="C302" s="33"/>
@@ -19831,7 +19831,7 @@
       <c r="AF302" s="34"/>
       <c r="AG302" s="38"/>
     </row>
-    <row r="303" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="24"/>
       <c r="B303" s="25"/>
       <c r="C303" s="24"/>
@@ -19866,7 +19866,7 @@
       <c r="AF303" s="25"/>
       <c r="AG303" s="29"/>
     </row>
-    <row r="304" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="33"/>
       <c r="B304" s="34"/>
       <c r="C304" s="33"/>
@@ -19901,7 +19901,7 @@
       <c r="AF304" s="34"/>
       <c r="AG304" s="38"/>
     </row>
-    <row r="305" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="24"/>
       <c r="B305" s="25"/>
       <c r="C305" s="24"/>
@@ -19936,7 +19936,7 @@
       <c r="AF305" s="25"/>
       <c r="AG305" s="29"/>
     </row>
-    <row r="306" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="33"/>
       <c r="B306" s="34"/>
       <c r="C306" s="33"/>
@@ -19971,7 +19971,7 @@
       <c r="AF306" s="34"/>
       <c r="AG306" s="38"/>
     </row>
-    <row r="307" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="24"/>
       <c r="B307" s="25"/>
       <c r="C307" s="24"/>
@@ -20006,7 +20006,7 @@
       <c r="AF307" s="25"/>
       <c r="AG307" s="29"/>
     </row>
-    <row r="308" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="33"/>
       <c r="B308" s="34"/>
       <c r="C308" s="33"/>
@@ -20041,7 +20041,7 @@
       <c r="AF308" s="34"/>
       <c r="AG308" s="38"/>
     </row>
-    <row r="309" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="24"/>
       <c r="B309" s="25"/>
       <c r="C309" s="24"/>
@@ -20076,7 +20076,7 @@
       <c r="AF309" s="25"/>
       <c r="AG309" s="29"/>
     </row>
-    <row r="310" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="33"/>
       <c r="B310" s="34"/>
       <c r="C310" s="33"/>
@@ -20111,7 +20111,7 @@
       <c r="AF310" s="34"/>
       <c r="AG310" s="38"/>
     </row>
-    <row r="311" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="24"/>
       <c r="B311" s="25"/>
       <c r="C311" s="24"/>
@@ -20146,7 +20146,7 @@
       <c r="AF311" s="25"/>
       <c r="AG311" s="29"/>
     </row>
-    <row r="312" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="33"/>
       <c r="B312" s="34"/>
       <c r="C312" s="33"/>
@@ -20181,7 +20181,7 @@
       <c r="AF312" s="34"/>
       <c r="AG312" s="38"/>
     </row>
-    <row r="313" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="24"/>
       <c r="B313" s="25"/>
       <c r="C313" s="24"/>
@@ -20216,7 +20216,7 @@
       <c r="AF313" s="25"/>
       <c r="AG313" s="29"/>
     </row>
-    <row r="314" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="33"/>
       <c r="B314" s="34"/>
       <c r="C314" s="33"/>
@@ -20251,7 +20251,7 @@
       <c r="AF314" s="34"/>
       <c r="AG314" s="38"/>
     </row>
-    <row r="315" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="24"/>
       <c r="B315" s="25"/>
       <c r="C315" s="24"/>
@@ -20286,7 +20286,7 @@
       <c r="AF315" s="25"/>
       <c r="AG315" s="29"/>
     </row>
-    <row r="316" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="33"/>
       <c r="B316" s="34"/>
       <c r="C316" s="33"/>
@@ -20321,7 +20321,7 @@
       <c r="AF316" s="34"/>
       <c r="AG316" s="38"/>
     </row>
-    <row r="317" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="24"/>
       <c r="B317" s="25"/>
       <c r="C317" s="24"/>
@@ -20356,7 +20356,7 @@
       <c r="AF317" s="25"/>
       <c r="AG317" s="29"/>
     </row>
-    <row r="318" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="33"/>
       <c r="B318" s="34"/>
       <c r="C318" s="33"/>
@@ -20391,7 +20391,7 @@
       <c r="AF318" s="34"/>
       <c r="AG318" s="38"/>
     </row>
-    <row r="319" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="24"/>
       <c r="B319" s="25"/>
       <c r="C319" s="24"/>
@@ -20426,7 +20426,7 @@
       <c r="AF319" s="25"/>
       <c r="AG319" s="29"/>
     </row>
-    <row r="320" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="33"/>
       <c r="B320" s="34"/>
       <c r="C320" s="33"/>
@@ -20461,7 +20461,7 @@
       <c r="AF320" s="34"/>
       <c r="AG320" s="38"/>
     </row>
-    <row r="321" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="24"/>
       <c r="B321" s="25"/>
       <c r="C321" s="24"/>
@@ -20496,7 +20496,7 @@
       <c r="AF321" s="25"/>
       <c r="AG321" s="29"/>
     </row>
-    <row r="322" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="33"/>
       <c r="B322" s="34"/>
       <c r="C322" s="33"/>
@@ -20531,7 +20531,7 @@
       <c r="AF322" s="34"/>
       <c r="AG322" s="38"/>
     </row>
-    <row r="323" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="24"/>
       <c r="B323" s="25"/>
       <c r="C323" s="24"/>
@@ -20566,7 +20566,7 @@
       <c r="AF323" s="25"/>
       <c r="AG323" s="29"/>
     </row>
-    <row r="324" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="33"/>
       <c r="B324" s="34"/>
       <c r="C324" s="33"/>
@@ -20601,7 +20601,7 @@
       <c r="AF324" s="34"/>
       <c r="AG324" s="38"/>
     </row>
-    <row r="325" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="24"/>
       <c r="B325" s="25"/>
       <c r="C325" s="24"/>
@@ -20636,7 +20636,7 @@
       <c r="AF325" s="25"/>
       <c r="AG325" s="29"/>
     </row>
-    <row r="326" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="33"/>
       <c r="B326" s="34"/>
       <c r="C326" s="33"/>
@@ -20671,7 +20671,7 @@
       <c r="AF326" s="34"/>
       <c r="AG326" s="38"/>
     </row>
-    <row r="327" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="24"/>
       <c r="B327" s="25"/>
       <c r="C327" s="24"/>
@@ -20706,7 +20706,7 @@
       <c r="AF327" s="25"/>
       <c r="AG327" s="29"/>
     </row>
-    <row r="328" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="33"/>
       <c r="B328" s="34"/>
       <c r="C328" s="33"/>
@@ -20741,7 +20741,7 @@
       <c r="AF328" s="34"/>
       <c r="AG328" s="38"/>
     </row>
-    <row r="329" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="24"/>
       <c r="B329" s="25"/>
       <c r="C329" s="24"/>
@@ -20776,7 +20776,7 @@
       <c r="AF329" s="25"/>
       <c r="AG329" s="29"/>
     </row>
-    <row r="330" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="33"/>
       <c r="B330" s="34"/>
       <c r="C330" s="33"/>
@@ -20811,7 +20811,7 @@
       <c r="AF330" s="34"/>
       <c r="AG330" s="38"/>
     </row>
-    <row r="331" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="24"/>
       <c r="B331" s="25"/>
       <c r="C331" s="24"/>
@@ -20846,7 +20846,7 @@
       <c r="AF331" s="25"/>
       <c r="AG331" s="29"/>
     </row>
-    <row r="332" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="33"/>
       <c r="B332" s="34"/>
       <c r="C332" s="33"/>
@@ -20881,7 +20881,7 @@
       <c r="AF332" s="34"/>
       <c r="AG332" s="38"/>
     </row>
-    <row r="333" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="24"/>
       <c r="B333" s="25"/>
       <c r="C333" s="24"/>
@@ -20916,7 +20916,7 @@
       <c r="AF333" s="25"/>
       <c r="AG333" s="29"/>
     </row>
-    <row r="334" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="33"/>
       <c r="B334" s="34"/>
       <c r="C334" s="33"/>
@@ -20951,7 +20951,7 @@
       <c r="AF334" s="34"/>
       <c r="AG334" s="38"/>
     </row>
-    <row r="335" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="24"/>
       <c r="B335" s="25"/>
       <c r="C335" s="24"/>
@@ -20986,7 +20986,7 @@
       <c r="AF335" s="25"/>
       <c r="AG335" s="29"/>
     </row>
-    <row r="336" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="33"/>
       <c r="B336" s="34"/>
       <c r="C336" s="33"/>
@@ -21021,7 +21021,7 @@
       <c r="AF336" s="34"/>
       <c r="AG336" s="38"/>
     </row>
-    <row r="337" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="24"/>
       <c r="B337" s="25"/>
       <c r="C337" s="24"/>
@@ -21056,7 +21056,7 @@
       <c r="AF337" s="25"/>
       <c r="AG337" s="29"/>
     </row>
-    <row r="338" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="33"/>
       <c r="B338" s="34"/>
       <c r="C338" s="33"/>
@@ -21091,7 +21091,7 @@
       <c r="AF338" s="34"/>
       <c r="AG338" s="38"/>
     </row>
-    <row r="339" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="24"/>
       <c r="B339" s="25"/>
       <c r="C339" s="24"/>
@@ -21126,7 +21126,7 @@
       <c r="AF339" s="25"/>
       <c r="AG339" s="29"/>
     </row>
-    <row r="340" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="33"/>
       <c r="B340" s="34"/>
       <c r="C340" s="33"/>
@@ -21161,7 +21161,7 @@
       <c r="AF340" s="34"/>
       <c r="AG340" s="38"/>
     </row>
-    <row r="341" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="24"/>
       <c r="B341" s="25"/>
       <c r="C341" s="24"/>
@@ -21196,7 +21196,7 @@
       <c r="AF341" s="25"/>
       <c r="AG341" s="29"/>
     </row>
-    <row r="342" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="33"/>
       <c r="B342" s="34"/>
       <c r="C342" s="33"/>
@@ -21231,7 +21231,7 @@
       <c r="AF342" s="34"/>
       <c r="AG342" s="38"/>
     </row>
-    <row r="343" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="24"/>
       <c r="B343" s="25"/>
       <c r="C343" s="24"/>
@@ -21266,7 +21266,7 @@
       <c r="AF343" s="25"/>
       <c r="AG343" s="29"/>
     </row>
-    <row r="344" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="33"/>
       <c r="B344" s="34"/>
       <c r="C344" s="33"/>
@@ -21301,7 +21301,7 @@
       <c r="AF344" s="34"/>
       <c r="AG344" s="38"/>
     </row>
-    <row r="345" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="24"/>
       <c r="B345" s="25"/>
       <c r="C345" s="24"/>
@@ -21336,7 +21336,7 @@
       <c r="AF345" s="25"/>
       <c r="AG345" s="29"/>
     </row>
-    <row r="346" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="33"/>
       <c r="B346" s="34"/>
       <c r="C346" s="33"/>
@@ -21371,7 +21371,7 @@
       <c r="AF346" s="34"/>
       <c r="AG346" s="38"/>
     </row>
-    <row r="347" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="24"/>
       <c r="B347" s="25"/>
       <c r="C347" s="24"/>
@@ -21406,7 +21406,7 @@
       <c r="AF347" s="25"/>
       <c r="AG347" s="29"/>
     </row>
-    <row r="348" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="33"/>
       <c r="B348" s="34"/>
       <c r="C348" s="33"/>
@@ -21441,7 +21441,7 @@
       <c r="AF348" s="34"/>
       <c r="AG348" s="38"/>
     </row>
-    <row r="349" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="24"/>
       <c r="B349" s="25"/>
       <c r="C349" s="24"/>
@@ -21476,7 +21476,7 @@
       <c r="AF349" s="25"/>
       <c r="AG349" s="29"/>
     </row>
-    <row r="350" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="33"/>
       <c r="B350" s="34"/>
       <c r="C350" s="33"/>
@@ -21511,7 +21511,7 @@
       <c r="AF350" s="34"/>
       <c r="AG350" s="38"/>
     </row>
-    <row r="351" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="24"/>
       <c r="B351" s="25"/>
       <c r="C351" s="24"/>
@@ -21546,7 +21546,7 @@
       <c r="AF351" s="25"/>
       <c r="AG351" s="29"/>
     </row>
-    <row r="352" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="33"/>
       <c r="B352" s="34"/>
       <c r="C352" s="33"/>
@@ -21581,7 +21581,7 @@
       <c r="AF352" s="34"/>
       <c r="AG352" s="38"/>
     </row>
-    <row r="353" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="24"/>
       <c r="B353" s="25"/>
       <c r="C353" s="24"/>
@@ -21616,7 +21616,7 @@
       <c r="AF353" s="25"/>
       <c r="AG353" s="29"/>
     </row>
-    <row r="354" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="33"/>
       <c r="B354" s="34"/>
       <c r="C354" s="33"/>
@@ -21651,7 +21651,7 @@
       <c r="AF354" s="34"/>
       <c r="AG354" s="38"/>
     </row>
-    <row r="355" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="24"/>
       <c r="B355" s="25"/>
       <c r="C355" s="24"/>
@@ -21686,7 +21686,7 @@
       <c r="AF355" s="25"/>
       <c r="AG355" s="29"/>
     </row>
-    <row r="356" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="33"/>
       <c r="B356" s="34"/>
       <c r="C356" s="33"/>
@@ -21721,7 +21721,7 @@
       <c r="AF356" s="34"/>
       <c r="AG356" s="38"/>
     </row>
-    <row r="357" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="24"/>
       <c r="B357" s="25"/>
       <c r="C357" s="24"/>
@@ -21756,7 +21756,7 @@
       <c r="AF357" s="25"/>
       <c r="AG357" s="29"/>
     </row>
-    <row r="358" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="33"/>
       <c r="B358" s="34"/>
       <c r="C358" s="33"/>
@@ -21791,7 +21791,7 @@
       <c r="AF358" s="34"/>
       <c r="AG358" s="38"/>
     </row>
-    <row r="359" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="24"/>
       <c r="B359" s="25"/>
       <c r="C359" s="24"/>
@@ -21826,7 +21826,7 @@
       <c r="AF359" s="25"/>
       <c r="AG359" s="29"/>
     </row>
-    <row r="360" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="33"/>
       <c r="B360" s="34"/>
       <c r="C360" s="33"/>
@@ -21861,7 +21861,7 @@
       <c r="AF360" s="34"/>
       <c r="AG360" s="38"/>
     </row>
-    <row r="361" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="24"/>
       <c r="B361" s="25"/>
       <c r="C361" s="24"/>
@@ -21896,7 +21896,7 @@
       <c r="AF361" s="25"/>
       <c r="AG361" s="29"/>
     </row>
-    <row r="362" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="33"/>
       <c r="B362" s="34"/>
       <c r="C362" s="33"/>
@@ -21931,7 +21931,7 @@
       <c r="AF362" s="34"/>
       <c r="AG362" s="38"/>
     </row>
-    <row r="363" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="24"/>
       <c r="B363" s="25"/>
       <c r="C363" s="24"/>
@@ -21966,7 +21966,7 @@
       <c r="AF363" s="25"/>
       <c r="AG363" s="29"/>
     </row>
-    <row r="364" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="33"/>
       <c r="B364" s="34"/>
       <c r="C364" s="33"/>
@@ -22001,7 +22001,7 @@
       <c r="AF364" s="34"/>
       <c r="AG364" s="38"/>
     </row>
-    <row r="365" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="24"/>
       <c r="B365" s="25"/>
       <c r="C365" s="24"/>
@@ -22036,7 +22036,7 @@
       <c r="AF365" s="25"/>
       <c r="AG365" s="29"/>
     </row>
-    <row r="366" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="33"/>
       <c r="B366" s="34"/>
       <c r="C366" s="33"/>
@@ -22071,7 +22071,7 @@
       <c r="AF366" s="34"/>
       <c r="AG366" s="38"/>
     </row>
-    <row r="367" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="24"/>
       <c r="B367" s="25"/>
       <c r="C367" s="24"/>
@@ -22106,7 +22106,7 @@
       <c r="AF367" s="25"/>
       <c r="AG367" s="29"/>
     </row>
-    <row r="368" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="33"/>
       <c r="B368" s="34"/>
       <c r="C368" s="33"/>
@@ -22141,7 +22141,7 @@
       <c r="AF368" s="34"/>
       <c r="AG368" s="38"/>
     </row>
-    <row r="369" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="24"/>
       <c r="B369" s="25"/>
       <c r="C369" s="24"/>
@@ -22176,7 +22176,7 @@
       <c r="AF369" s="25"/>
       <c r="AG369" s="29"/>
     </row>
-    <row r="370" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="33"/>
       <c r="B370" s="34"/>
       <c r="C370" s="33"/>
@@ -22211,7 +22211,7 @@
       <c r="AF370" s="34"/>
       <c r="AG370" s="38"/>
     </row>
-    <row r="371" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="24"/>
       <c r="B371" s="25"/>
       <c r="C371" s="24"/>
@@ -22246,7 +22246,7 @@
       <c r="AF371" s="25"/>
       <c r="AG371" s="29"/>
     </row>
-    <row r="372" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="33"/>
       <c r="B372" s="34"/>
       <c r="C372" s="33"/>
@@ -22281,7 +22281,7 @@
       <c r="AF372" s="34"/>
       <c r="AG372" s="38"/>
     </row>
-    <row r="373" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="24"/>
       <c r="B373" s="25"/>
       <c r="C373" s="24"/>
@@ -22316,7 +22316,7 @@
       <c r="AF373" s="25"/>
       <c r="AG373" s="29"/>
     </row>
-    <row r="374" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="46"/>
       <c r="B374" s="46"/>
       <c r="C374" s="46"/>
@@ -22351,24 +22351,11 @@
       <c r="AF374" s="46"/>
       <c r="AG374" s="46"/>
     </row>
-    <row r="376" spans="1:33" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="1:33" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="1:33" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="1:33" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="1:33" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:33" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="Y5:AA5"/>
     <mergeCell ref="A3:AG3"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
@@ -22380,6 +22367,19 @@
     <mergeCell ref="J4:R4"/>
     <mergeCell ref="S4:AA4"/>
     <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:R7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157505" right="0.39370078740157505" top="0.39370078740157505" bottom="0.39370078740157505" header="0.39370078740157505" footer="0.39370078740157505"/>
